--- a/tools/yolov4x-mish.xlsx
+++ b/tools/yolov4x-mish.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maruyama/Projects/private/public/yolo_various_platforms/tools/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{85316376-EE9F-3A4B-9BF2-DB3EC18CCC77}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D98D3AB2-AC9C-A842-AE15-34637232C2B8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3240" yWindow="500" windowWidth="27900" windowHeight="16940"/>
+    <workbookView xWindow="8060" yWindow="19020" windowWidth="18920" windowHeight="16120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="yolov4x-mish" sheetId="1" r:id="rId1"/>
@@ -218,26 +218,26 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>concat(x, x_57)</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>x → x_57</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>concat(x, x_94)</t>
     <phoneticPr fontId="18"/>
   </si>
   <si>
     <t>x → x_94</t>
     <phoneticPr fontId="18"/>
   </si>
+  <si>
+    <t>concat(x, x_135)</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>concat(x, x_151)</t>
+    <phoneticPr fontId="18"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19">
     <font>
       <sz val="12"/>
@@ -877,6 +877,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -885,18 +897,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1252,11 +1252,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A179" workbookViewId="0">
-      <selection activeCell="P193" sqref="P193"/>
+    <sheetView tabSelected="1" topLeftCell="F125" workbookViewId="0">
+      <selection activeCell="L157" sqref="L157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1340,7 +1340,7 @@
         <v>44</v>
       </c>
       <c r="M2" s="4"/>
-      <c r="N2" s="5" t="s">
+      <c r="N2" s="3" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1375,7 +1375,7 @@
       <c r="L3" t="s">
         <v>35</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="M3" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N3" s="4"/>
@@ -1408,7 +1408,7 @@
       <c r="I4">
         <v>2</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="L4" s="5" t="s">
         <v>30</v>
       </c>
       <c r="M4" s="4"/>
@@ -1442,7 +1442,7 @@
       <c r="I5">
         <v>3</v>
       </c>
-      <c r="L5" s="2"/>
+      <c r="L5" s="6"/>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
@@ -1459,7 +1459,7 @@
       <c r="J6">
         <v>-3</v>
       </c>
-      <c r="L6" s="3"/>
+      <c r="L6" s="7"/>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
@@ -1494,7 +1494,7 @@
       <c r="L7" t="s">
         <v>35</v>
       </c>
-      <c r="M7" s="5" t="s">
+      <c r="M7" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N7" s="4"/>
@@ -1611,7 +1611,7 @@
       <c r="I11">
         <v>9</v>
       </c>
-      <c r="L11" s="1" t="s">
+      <c r="L11" s="5" t="s">
         <v>30</v>
       </c>
       <c r="M11" s="4"/>
@@ -1645,7 +1645,7 @@
       <c r="I12">
         <v>10</v>
       </c>
-      <c r="L12" s="2"/>
+      <c r="L12" s="6"/>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
     </row>
@@ -1662,7 +1662,7 @@
       <c r="J13">
         <v>-3</v>
       </c>
-      <c r="L13" s="3"/>
+      <c r="L13" s="7"/>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
     </row>
@@ -1694,7 +1694,7 @@
       <c r="I14">
         <v>12</v>
       </c>
-      <c r="L14" s="1" t="s">
+      <c r="L14" s="5" t="s">
         <v>30</v>
       </c>
       <c r="M14" s="4"/>
@@ -1728,7 +1728,7 @@
       <c r="I15">
         <v>13</v>
       </c>
-      <c r="L15" s="2"/>
+      <c r="L15" s="6"/>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
     </row>
@@ -1745,7 +1745,7 @@
       <c r="J16">
         <v>-3</v>
       </c>
-      <c r="L16" s="3"/>
+      <c r="L16" s="7"/>
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
     </row>
@@ -1777,7 +1777,7 @@
       <c r="I17">
         <v>15</v>
       </c>
-      <c r="L17" s="1" t="s">
+      <c r="L17" s="5" t="s">
         <v>30</v>
       </c>
       <c r="M17" s="4"/>
@@ -1811,7 +1811,7 @@
       <c r="I18">
         <v>16</v>
       </c>
-      <c r="L18" s="2"/>
+      <c r="L18" s="6"/>
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
     </row>
@@ -1828,7 +1828,7 @@
       <c r="J19">
         <v>-3</v>
       </c>
-      <c r="L19" s="3"/>
+      <c r="L19" s="7"/>
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
     </row>
@@ -1947,7 +1947,7 @@
       <c r="L23" t="s">
         <v>35</v>
       </c>
-      <c r="M23" s="5" t="s">
+      <c r="M23" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N23" s="4"/>
@@ -2064,7 +2064,7 @@
       <c r="I27">
         <v>25</v>
       </c>
-      <c r="L27" s="1" t="s">
+      <c r="L27" s="5" t="s">
         <v>30</v>
       </c>
       <c r="M27" s="4"/>
@@ -2098,7 +2098,7 @@
       <c r="I28">
         <v>26</v>
       </c>
-      <c r="L28" s="2"/>
+      <c r="L28" s="6"/>
       <c r="M28" s="4"/>
       <c r="N28" s="4"/>
     </row>
@@ -2115,7 +2115,7 @@
       <c r="J29">
         <v>-3</v>
       </c>
-      <c r="L29" s="3"/>
+      <c r="L29" s="7"/>
       <c r="M29" s="4"/>
       <c r="N29" s="4"/>
     </row>
@@ -2147,7 +2147,7 @@
       <c r="I30">
         <v>28</v>
       </c>
-      <c r="L30" s="1" t="s">
+      <c r="L30" s="5" t="s">
         <v>30</v>
       </c>
       <c r="M30" s="4"/>
@@ -2181,7 +2181,7 @@
       <c r="I31">
         <v>29</v>
       </c>
-      <c r="L31" s="2"/>
+      <c r="L31" s="6"/>
       <c r="M31" s="4"/>
       <c r="N31" s="4"/>
     </row>
@@ -2198,7 +2198,7 @@
       <c r="J32">
         <v>-3</v>
       </c>
-      <c r="L32" s="3"/>
+      <c r="L32" s="7"/>
       <c r="M32" s="4"/>
       <c r="N32" s="4"/>
     </row>
@@ -2230,7 +2230,7 @@
       <c r="I33">
         <v>31</v>
       </c>
-      <c r="L33" s="1" t="s">
+      <c r="L33" s="5" t="s">
         <v>30</v>
       </c>
       <c r="M33" s="4"/>
@@ -2264,7 +2264,7 @@
       <c r="I34">
         <v>32</v>
       </c>
-      <c r="L34" s="2"/>
+      <c r="L34" s="6"/>
       <c r="M34" s="4"/>
       <c r="N34" s="4"/>
     </row>
@@ -2281,7 +2281,7 @@
       <c r="J35">
         <v>-3</v>
       </c>
-      <c r="L35" s="3"/>
+      <c r="L35" s="7"/>
       <c r="M35" s="4"/>
       <c r="N35" s="4"/>
     </row>
@@ -2313,7 +2313,7 @@
       <c r="I36">
         <v>34</v>
       </c>
-      <c r="L36" s="1" t="s">
+      <c r="L36" s="5" t="s">
         <v>30</v>
       </c>
       <c r="M36" s="4"/>
@@ -2347,7 +2347,7 @@
       <c r="I37">
         <v>35</v>
       </c>
-      <c r="L37" s="2"/>
+      <c r="L37" s="6"/>
       <c r="M37" s="4"/>
       <c r="N37" s="4"/>
     </row>
@@ -2364,7 +2364,7 @@
       <c r="J38">
         <v>-3</v>
       </c>
-      <c r="L38" s="3"/>
+      <c r="L38" s="7"/>
       <c r="M38" s="4"/>
       <c r="N38" s="4"/>
     </row>
@@ -2396,7 +2396,7 @@
       <c r="I39">
         <v>37</v>
       </c>
-      <c r="L39" s="1" t="s">
+      <c r="L39" s="5" t="s">
         <v>30</v>
       </c>
       <c r="M39" s="4"/>
@@ -2430,7 +2430,7 @@
       <c r="I40">
         <v>38</v>
       </c>
-      <c r="L40" s="2"/>
+      <c r="L40" s="6"/>
       <c r="M40" s="4"/>
       <c r="N40" s="4"/>
     </row>
@@ -2447,7 +2447,7 @@
       <c r="J41">
         <v>-3</v>
       </c>
-      <c r="L41" s="3"/>
+      <c r="L41" s="7"/>
       <c r="M41" s="4"/>
       <c r="N41" s="4"/>
     </row>
@@ -2479,7 +2479,7 @@
       <c r="I42">
         <v>40</v>
       </c>
-      <c r="L42" s="1" t="s">
+      <c r="L42" s="5" t="s">
         <v>30</v>
       </c>
       <c r="M42" s="4"/>
@@ -2513,7 +2513,7 @@
       <c r="I43">
         <v>41</v>
       </c>
-      <c r="L43" s="2"/>
+      <c r="L43" s="6"/>
       <c r="M43" s="4"/>
       <c r="N43" s="4"/>
     </row>
@@ -2530,7 +2530,7 @@
       <c r="J44">
         <v>-3</v>
       </c>
-      <c r="L44" s="3"/>
+      <c r="L44" s="7"/>
       <c r="M44" s="4"/>
       <c r="N44" s="4"/>
     </row>
@@ -2562,7 +2562,7 @@
       <c r="I45">
         <v>43</v>
       </c>
-      <c r="L45" s="1" t="s">
+      <c r="L45" s="5" t="s">
         <v>30</v>
       </c>
       <c r="M45" s="4"/>
@@ -2596,7 +2596,7 @@
       <c r="I46">
         <v>44</v>
       </c>
-      <c r="L46" s="2"/>
+      <c r="L46" s="6"/>
       <c r="M46" s="4"/>
       <c r="N46" s="4"/>
     </row>
@@ -2613,7 +2613,7 @@
       <c r="J47">
         <v>-3</v>
       </c>
-      <c r="L47" s="3"/>
+      <c r="L47" s="7"/>
       <c r="M47" s="4"/>
       <c r="N47" s="4"/>
     </row>
@@ -2645,7 +2645,7 @@
       <c r="I48">
         <v>46</v>
       </c>
-      <c r="L48" s="1" t="s">
+      <c r="L48" s="5" t="s">
         <v>30</v>
       </c>
       <c r="M48" s="4"/>
@@ -2679,7 +2679,7 @@
       <c r="I49">
         <v>47</v>
       </c>
-      <c r="L49" s="2"/>
+      <c r="L49" s="6"/>
       <c r="M49" s="4"/>
       <c r="N49" s="4"/>
     </row>
@@ -2696,7 +2696,7 @@
       <c r="J50">
         <v>-3</v>
       </c>
-      <c r="L50" s="3"/>
+      <c r="L50" s="7"/>
       <c r="M50" s="4"/>
       <c r="N50" s="4"/>
     </row>
@@ -2728,7 +2728,7 @@
       <c r="I51">
         <v>49</v>
       </c>
-      <c r="L51" s="1" t="s">
+      <c r="L51" s="5" t="s">
         <v>30</v>
       </c>
       <c r="M51" s="4"/>
@@ -2762,7 +2762,7 @@
       <c r="I52">
         <v>50</v>
       </c>
-      <c r="L52" s="2"/>
+      <c r="L52" s="6"/>
       <c r="M52" s="4"/>
       <c r="N52" s="4"/>
     </row>
@@ -2779,7 +2779,7 @@
       <c r="J53">
         <v>-3</v>
       </c>
-      <c r="L53" s="3"/>
+      <c r="L53" s="7"/>
       <c r="M53" s="4"/>
       <c r="N53" s="4"/>
     </row>
@@ -2811,7 +2811,7 @@
       <c r="I54">
         <v>52</v>
       </c>
-      <c r="L54" s="1" t="s">
+      <c r="L54" s="5" t="s">
         <v>30</v>
       </c>
       <c r="M54" s="4"/>
@@ -2845,7 +2845,7 @@
       <c r="I55">
         <v>53</v>
       </c>
-      <c r="L55" s="2"/>
+      <c r="L55" s="6"/>
       <c r="M55" s="4"/>
       <c r="N55" s="4"/>
     </row>
@@ -2862,7 +2862,7 @@
       <c r="J56">
         <v>-3</v>
       </c>
-      <c r="L56" s="3"/>
+      <c r="L56" s="7"/>
       <c r="M56" s="4"/>
       <c r="N56" s="4"/>
     </row>
@@ -2941,7 +2941,7 @@
       <c r="H59">
         <v>1</v>
       </c>
-      <c r="I59" s="7">
+      <c r="I59" s="2">
         <v>57</v>
       </c>
       <c r="L59" t="s">
@@ -2981,7 +2981,7 @@
       <c r="L60" t="s">
         <v>35</v>
       </c>
-      <c r="M60" s="5" t="s">
+      <c r="M60" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N60" s="4"/>
@@ -3098,7 +3098,7 @@
       <c r="I64">
         <v>62</v>
       </c>
-      <c r="L64" s="1" t="s">
+      <c r="L64" s="5" t="s">
         <v>30</v>
       </c>
       <c r="M64" s="4"/>
@@ -3132,7 +3132,7 @@
       <c r="I65">
         <v>63</v>
       </c>
-      <c r="L65" s="2"/>
+      <c r="L65" s="6"/>
       <c r="M65" s="4"/>
       <c r="N65" s="4"/>
     </row>
@@ -3149,7 +3149,7 @@
       <c r="J66">
         <v>-3</v>
       </c>
-      <c r="L66" s="3"/>
+      <c r="L66" s="7"/>
       <c r="M66" s="4"/>
       <c r="N66" s="4"/>
     </row>
@@ -3181,7 +3181,7 @@
       <c r="I67">
         <v>65</v>
       </c>
-      <c r="L67" s="1" t="s">
+      <c r="L67" s="5" t="s">
         <v>30</v>
       </c>
       <c r="M67" s="4"/>
@@ -3215,7 +3215,7 @@
       <c r="I68">
         <v>66</v>
       </c>
-      <c r="L68" s="2"/>
+      <c r="L68" s="6"/>
       <c r="M68" s="4"/>
       <c r="N68" s="4"/>
     </row>
@@ -3232,7 +3232,7 @@
       <c r="J69">
         <v>-3</v>
       </c>
-      <c r="L69" s="3"/>
+      <c r="L69" s="7"/>
       <c r="M69" s="4"/>
       <c r="N69" s="4"/>
     </row>
@@ -3264,7 +3264,7 @@
       <c r="I70">
         <v>68</v>
       </c>
-      <c r="L70" s="1" t="s">
+      <c r="L70" s="5" t="s">
         <v>30</v>
       </c>
       <c r="M70" s="4"/>
@@ -3298,7 +3298,7 @@
       <c r="I71">
         <v>69</v>
       </c>
-      <c r="L71" s="2"/>
+      <c r="L71" s="6"/>
       <c r="M71" s="4"/>
       <c r="N71" s="4"/>
     </row>
@@ -3315,7 +3315,7 @@
       <c r="J72">
         <v>-3</v>
       </c>
-      <c r="L72" s="3"/>
+      <c r="L72" s="7"/>
       <c r="M72" s="4"/>
       <c r="N72" s="4"/>
     </row>
@@ -3347,7 +3347,7 @@
       <c r="I73">
         <v>71</v>
       </c>
-      <c r="L73" s="1" t="s">
+      <c r="L73" s="5" t="s">
         <v>30</v>
       </c>
       <c r="M73" s="4"/>
@@ -3381,7 +3381,7 @@
       <c r="I74">
         <v>72</v>
       </c>
-      <c r="L74" s="2"/>
+      <c r="L74" s="6"/>
       <c r="M74" s="4"/>
       <c r="N74" s="4"/>
     </row>
@@ -3398,7 +3398,7 @@
       <c r="J75">
         <v>-3</v>
       </c>
-      <c r="L75" s="3"/>
+      <c r="L75" s="7"/>
       <c r="M75" s="4"/>
       <c r="N75" s="4"/>
     </row>
@@ -3430,7 +3430,7 @@
       <c r="I76">
         <v>74</v>
       </c>
-      <c r="L76" s="1" t="s">
+      <c r="L76" s="5" t="s">
         <v>30</v>
       </c>
       <c r="M76" s="4"/>
@@ -3464,7 +3464,7 @@
       <c r="I77">
         <v>75</v>
       </c>
-      <c r="L77" s="2"/>
+      <c r="L77" s="6"/>
       <c r="M77" s="4"/>
       <c r="N77" s="4"/>
     </row>
@@ -3481,7 +3481,7 @@
       <c r="J78">
         <v>-3</v>
       </c>
-      <c r="L78" s="3"/>
+      <c r="L78" s="7"/>
       <c r="M78" s="4"/>
       <c r="N78" s="4"/>
     </row>
@@ -3513,7 +3513,7 @@
       <c r="I79">
         <v>77</v>
       </c>
-      <c r="L79" s="1" t="s">
+      <c r="L79" s="5" t="s">
         <v>30</v>
       </c>
       <c r="M79" s="4"/>
@@ -3547,7 +3547,7 @@
       <c r="I80">
         <v>78</v>
       </c>
-      <c r="L80" s="2"/>
+      <c r="L80" s="6"/>
       <c r="M80" s="4"/>
       <c r="N80" s="4"/>
     </row>
@@ -3564,7 +3564,7 @@
       <c r="J81">
         <v>-3</v>
       </c>
-      <c r="L81" s="3"/>
+      <c r="L81" s="7"/>
       <c r="M81" s="4"/>
       <c r="N81" s="4"/>
     </row>
@@ -3596,7 +3596,7 @@
       <c r="I82">
         <v>80</v>
       </c>
-      <c r="L82" s="1" t="s">
+      <c r="L82" s="5" t="s">
         <v>30</v>
       </c>
       <c r="M82" s="4"/>
@@ -3630,7 +3630,7 @@
       <c r="I83">
         <v>81</v>
       </c>
-      <c r="L83" s="2"/>
+      <c r="L83" s="6"/>
       <c r="M83" s="4"/>
       <c r="N83" s="4"/>
     </row>
@@ -3647,7 +3647,7 @@
       <c r="J84">
         <v>-3</v>
       </c>
-      <c r="L84" s="3"/>
+      <c r="L84" s="7"/>
       <c r="M84" s="4"/>
       <c r="N84" s="4"/>
     </row>
@@ -3679,7 +3679,7 @@
       <c r="I85">
         <v>83</v>
       </c>
-      <c r="L85" s="1" t="s">
+      <c r="L85" s="5" t="s">
         <v>30</v>
       </c>
       <c r="M85" s="4"/>
@@ -3713,7 +3713,7 @@
       <c r="I86">
         <v>84</v>
       </c>
-      <c r="L86" s="2"/>
+      <c r="L86" s="6"/>
       <c r="M86" s="4"/>
       <c r="N86" s="4"/>
     </row>
@@ -3730,7 +3730,7 @@
       <c r="J87">
         <v>-3</v>
       </c>
-      <c r="L87" s="3"/>
+      <c r="L87" s="7"/>
       <c r="M87" s="4"/>
       <c r="N87" s="4"/>
     </row>
@@ -3762,7 +3762,7 @@
       <c r="I88">
         <v>86</v>
       </c>
-      <c r="L88" s="1" t="s">
+      <c r="L88" s="5" t="s">
         <v>30</v>
       </c>
       <c r="M88" s="4"/>
@@ -3796,7 +3796,7 @@
       <c r="I89">
         <v>87</v>
       </c>
-      <c r="L89" s="2"/>
+      <c r="L89" s="6"/>
       <c r="M89" s="4"/>
       <c r="N89" s="4"/>
     </row>
@@ -3813,7 +3813,7 @@
       <c r="J90">
         <v>-3</v>
       </c>
-      <c r="L90" s="3"/>
+      <c r="L90" s="7"/>
       <c r="M90" s="4"/>
       <c r="N90" s="4"/>
     </row>
@@ -3845,7 +3845,7 @@
       <c r="I91">
         <v>89</v>
       </c>
-      <c r="L91" s="1" t="s">
+      <c r="L91" s="5" t="s">
         <v>30</v>
       </c>
       <c r="M91" s="4"/>
@@ -3879,7 +3879,7 @@
       <c r="I92">
         <v>90</v>
       </c>
-      <c r="L92" s="2"/>
+      <c r="L92" s="6"/>
       <c r="M92" s="4"/>
       <c r="N92" s="4"/>
     </row>
@@ -3896,7 +3896,7 @@
       <c r="J93">
         <v>-3</v>
       </c>
-      <c r="L93" s="3"/>
+      <c r="L93" s="7"/>
       <c r="M93" s="4"/>
       <c r="N93" s="4"/>
     </row>
@@ -3975,7 +3975,7 @@
       <c r="H96">
         <v>1</v>
       </c>
-      <c r="I96" s="7">
+      <c r="I96" s="2">
         <v>94</v>
       </c>
       <c r="L96" t="s">
@@ -4015,7 +4015,7 @@
       <c r="L97" t="s">
         <v>35</v>
       </c>
-      <c r="M97" s="5" t="s">
+      <c r="M97" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N97" s="4"/>
@@ -4132,7 +4132,7 @@
       <c r="I101">
         <v>99</v>
       </c>
-      <c r="L101" s="1" t="s">
+      <c r="L101" s="5" t="s">
         <v>30</v>
       </c>
       <c r="M101" s="4"/>
@@ -4166,7 +4166,7 @@
       <c r="I102">
         <v>100</v>
       </c>
-      <c r="L102" s="2"/>
+      <c r="L102" s="6"/>
       <c r="M102" s="4"/>
       <c r="N102" s="4"/>
     </row>
@@ -4183,7 +4183,7 @@
       <c r="J103">
         <v>-3</v>
       </c>
-      <c r="L103" s="3"/>
+      <c r="L103" s="7"/>
       <c r="M103" s="4"/>
       <c r="N103" s="4"/>
     </row>
@@ -4215,7 +4215,7 @@
       <c r="I104">
         <v>102</v>
       </c>
-      <c r="L104" s="1" t="s">
+      <c r="L104" s="5" t="s">
         <v>30</v>
       </c>
       <c r="M104" s="4"/>
@@ -4249,7 +4249,7 @@
       <c r="I105">
         <v>103</v>
       </c>
-      <c r="L105" s="2"/>
+      <c r="L105" s="6"/>
       <c r="M105" s="4"/>
       <c r="N105" s="4"/>
     </row>
@@ -4266,7 +4266,7 @@
       <c r="J106">
         <v>-3</v>
       </c>
-      <c r="L106" s="3"/>
+      <c r="L106" s="7"/>
       <c r="M106" s="4"/>
       <c r="N106" s="4"/>
     </row>
@@ -4298,7 +4298,7 @@
       <c r="I107">
         <v>105</v>
       </c>
-      <c r="L107" s="1" t="s">
+      <c r="L107" s="5" t="s">
         <v>30</v>
       </c>
       <c r="M107" s="4"/>
@@ -4332,7 +4332,7 @@
       <c r="I108">
         <v>106</v>
       </c>
-      <c r="L108" s="2"/>
+      <c r="L108" s="6"/>
       <c r="M108" s="4"/>
       <c r="N108" s="4"/>
     </row>
@@ -4349,7 +4349,7 @@
       <c r="J109">
         <v>-3</v>
       </c>
-      <c r="L109" s="3"/>
+      <c r="L109" s="7"/>
       <c r="M109" s="4"/>
       <c r="N109" s="4"/>
     </row>
@@ -4381,7 +4381,7 @@
       <c r="I110">
         <v>108</v>
       </c>
-      <c r="L110" s="1" t="s">
+      <c r="L110" s="5" t="s">
         <v>30</v>
       </c>
       <c r="M110" s="4"/>
@@ -4415,7 +4415,7 @@
       <c r="I111">
         <v>109</v>
       </c>
-      <c r="L111" s="2"/>
+      <c r="L111" s="6"/>
       <c r="M111" s="4"/>
       <c r="N111" s="4"/>
     </row>
@@ -4432,7 +4432,7 @@
       <c r="J112">
         <v>-3</v>
       </c>
-      <c r="L112" s="3"/>
+      <c r="L112" s="7"/>
       <c r="M112" s="4"/>
       <c r="N112" s="4"/>
     </row>
@@ -4464,7 +4464,7 @@
       <c r="I113">
         <v>111</v>
       </c>
-      <c r="L113" s="1" t="s">
+      <c r="L113" s="5" t="s">
         <v>30</v>
       </c>
       <c r="M113" s="4"/>
@@ -4498,7 +4498,7 @@
       <c r="I114">
         <v>112</v>
       </c>
-      <c r="L114" s="2"/>
+      <c r="L114" s="6"/>
       <c r="M114" s="4"/>
       <c r="N114" s="4"/>
     </row>
@@ -4515,7 +4515,7 @@
       <c r="J115">
         <v>-3</v>
       </c>
-      <c r="L115" s="3"/>
+      <c r="L115" s="7"/>
       <c r="M115" s="4"/>
       <c r="N115" s="4"/>
     </row>
@@ -4634,7 +4634,7 @@
       <c r="L119" t="s">
         <v>35</v>
       </c>
-      <c r="M119" s="5" t="s">
+      <c r="M119" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N119" s="4"/>
@@ -4652,7 +4652,7 @@
       <c r="L120" t="s">
         <v>36</v>
       </c>
-      <c r="M120" s="5"/>
+      <c r="M120" s="3"/>
       <c r="N120" s="4"/>
     </row>
     <row r="121" spans="1:14" ht="21">
@@ -4683,10 +4683,10 @@
       <c r="I121">
         <v>119</v>
       </c>
-      <c r="L121" s="6" t="s">
+      <c r="L121" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="M121" s="5"/>
+      <c r="M121" s="3"/>
       <c r="N121" s="4"/>
     </row>
     <row r="122" spans="1:14">
@@ -4720,7 +4720,7 @@
       <c r="L122" t="s">
         <v>36</v>
       </c>
-      <c r="M122" s="5"/>
+      <c r="M122" s="3"/>
       <c r="N122" s="4"/>
     </row>
     <row r="123" spans="1:14">
@@ -4754,7 +4754,7 @@
       <c r="L123" t="s">
         <v>36</v>
       </c>
-      <c r="M123" s="5"/>
+      <c r="M123" s="3"/>
       <c r="N123" s="4"/>
     </row>
     <row r="124" spans="1:14">
@@ -4773,7 +4773,7 @@
       <c r="L124" t="s">
         <v>33</v>
       </c>
-      <c r="M124" s="5"/>
+      <c r="M124" s="3"/>
       <c r="N124" s="4"/>
     </row>
     <row r="125" spans="1:14">
@@ -4789,7 +4789,7 @@
       <c r="L125" t="s">
         <v>33</v>
       </c>
-      <c r="M125" s="5"/>
+      <c r="M125" s="3"/>
       <c r="N125" s="4"/>
     </row>
     <row r="126" spans="1:14">
@@ -4808,7 +4808,7 @@
       <c r="L126" t="s">
         <v>33</v>
       </c>
-      <c r="M126" s="5"/>
+      <c r="M126" s="3"/>
       <c r="N126" s="4"/>
     </row>
     <row r="127" spans="1:14">
@@ -4824,7 +4824,7 @@
       <c r="L127" t="s">
         <v>33</v>
       </c>
-      <c r="M127" s="5"/>
+      <c r="M127" s="3"/>
       <c r="N127" s="4"/>
     </row>
     <row r="128" spans="1:14">
@@ -4843,7 +4843,7 @@
       <c r="L128" t="s">
         <v>33</v>
       </c>
-      <c r="M128" s="5"/>
+      <c r="M128" s="3"/>
       <c r="N128" s="4"/>
     </row>
     <row r="129" spans="1:14">
@@ -4859,7 +4859,7 @@
       <c r="L129" t="s">
         <v>33</v>
       </c>
-      <c r="M129" s="5"/>
+      <c r="M129" s="3"/>
       <c r="N129" s="4"/>
     </row>
     <row r="130" spans="1:14">
@@ -4893,7 +4893,7 @@
       <c r="L130" t="s">
         <v>36</v>
       </c>
-      <c r="M130" s="5"/>
+      <c r="M130" s="3"/>
       <c r="N130" s="4"/>
     </row>
     <row r="131" spans="1:14">
@@ -4927,7 +4927,7 @@
       <c r="L131" t="s">
         <v>36</v>
       </c>
-      <c r="M131" s="5"/>
+      <c r="M131" s="3"/>
       <c r="N131" s="4"/>
     </row>
     <row r="132" spans="1:14">
@@ -4961,7 +4961,7 @@
       <c r="L132" t="s">
         <v>36</v>
       </c>
-      <c r="M132" s="5"/>
+      <c r="M132" s="3"/>
       <c r="N132" s="4"/>
     </row>
     <row r="133" spans="1:14">
@@ -4995,7 +4995,7 @@
       <c r="L133" t="s">
         <v>36</v>
       </c>
-      <c r="M133" s="5"/>
+      <c r="M133" s="3"/>
       <c r="N133" s="4"/>
     </row>
     <row r="134" spans="1:14">
@@ -5011,7 +5011,7 @@
       <c r="L134" t="s">
         <v>37</v>
       </c>
-      <c r="M134" s="5"/>
+      <c r="M134" s="3"/>
       <c r="N134" s="4"/>
     </row>
     <row r="135" spans="1:14">
@@ -5039,13 +5039,13 @@
       <c r="H135">
         <v>1</v>
       </c>
-      <c r="I135" s="7">
+      <c r="I135" s="2">
         <v>133</v>
       </c>
       <c r="L135" t="s">
         <v>35</v>
       </c>
-      <c r="M135" s="5"/>
+      <c r="M135" s="3"/>
       <c r="N135" s="4"/>
     </row>
     <row r="136" spans="1:14">
@@ -5107,7 +5107,7 @@
         <v>94</v>
       </c>
       <c r="L138" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="139" spans="1:14">
@@ -5189,10 +5189,10 @@
       <c r="L141" t="s">
         <v>35</v>
       </c>
-      <c r="M141" s="5" t="s">
+      <c r="M141" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="N141" s="5"/>
+      <c r="N141" s="3"/>
     </row>
     <row r="142" spans="1:14">
       <c r="A142" t="s">
@@ -5225,8 +5225,8 @@
       <c r="L142" t="s">
         <v>40</v>
       </c>
-      <c r="M142" s="5"/>
-      <c r="N142" s="5"/>
+      <c r="M142" s="3"/>
+      <c r="N142" s="3"/>
     </row>
     <row r="143" spans="1:14">
       <c r="A143" t="s">
@@ -5241,8 +5241,8 @@
       <c r="L143" t="s">
         <v>36</v>
       </c>
-      <c r="M143" s="5"/>
-      <c r="N143" s="5"/>
+      <c r="M143" s="3"/>
+      <c r="N143" s="3"/>
     </row>
     <row r="144" spans="1:14">
       <c r="A144" t="s">
@@ -5275,8 +5275,8 @@
       <c r="L144" t="s">
         <v>36</v>
       </c>
-      <c r="M144" s="5"/>
-      <c r="N144" s="5"/>
+      <c r="M144" s="3"/>
+      <c r="N144" s="3"/>
     </row>
     <row r="145" spans="1:14">
       <c r="A145" t="s">
@@ -5309,8 +5309,8 @@
       <c r="L145" t="s">
         <v>36</v>
       </c>
-      <c r="M145" s="5"/>
-      <c r="N145" s="5"/>
+      <c r="M145" s="3"/>
+      <c r="N145" s="3"/>
     </row>
     <row r="146" spans="1:14">
       <c r="A146" t="s">
@@ -5343,8 +5343,8 @@
       <c r="L146" t="s">
         <v>36</v>
       </c>
-      <c r="M146" s="5"/>
-      <c r="N146" s="5"/>
+      <c r="M146" s="3"/>
+      <c r="N146" s="3"/>
     </row>
     <row r="147" spans="1:14">
       <c r="A147" t="s">
@@ -5377,8 +5377,8 @@
       <c r="L147" t="s">
         <v>36</v>
       </c>
-      <c r="M147" s="5"/>
-      <c r="N147" s="5"/>
+      <c r="M147" s="3"/>
+      <c r="N147" s="3"/>
     </row>
     <row r="148" spans="1:14">
       <c r="A148" t="s">
@@ -5411,8 +5411,8 @@
       <c r="L148" t="s">
         <v>36</v>
       </c>
-      <c r="M148" s="5"/>
-      <c r="N148" s="5"/>
+      <c r="M148" s="3"/>
+      <c r="N148" s="3"/>
     </row>
     <row r="149" spans="1:14">
       <c r="A149" t="s">
@@ -5445,8 +5445,8 @@
       <c r="L149" t="s">
         <v>36</v>
       </c>
-      <c r="M149" s="5"/>
-      <c r="N149" s="5"/>
+      <c r="M149" s="3"/>
+      <c r="N149" s="3"/>
     </row>
     <row r="150" spans="1:14">
       <c r="A150" t="s">
@@ -5461,8 +5461,8 @@
       <c r="L150" t="s">
         <v>37</v>
       </c>
-      <c r="M150" s="5"/>
-      <c r="N150" s="5"/>
+      <c r="M150" s="3"/>
+      <c r="N150" s="3"/>
     </row>
     <row r="151" spans="1:14">
       <c r="A151" t="s">
@@ -5489,14 +5489,14 @@
       <c r="H151">
         <v>1</v>
       </c>
-      <c r="I151" s="7">
+      <c r="I151" s="2">
         <v>149</v>
       </c>
       <c r="L151" t="s">
         <v>35</v>
       </c>
-      <c r="M151" s="5"/>
-      <c r="N151" s="5"/>
+      <c r="M151" s="3"/>
+      <c r="N151" s="3"/>
     </row>
     <row r="152" spans="1:14">
       <c r="A152" t="s">
@@ -5557,7 +5557,7 @@
         <v>57</v>
       </c>
       <c r="L154" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="155" spans="1:14">
@@ -5605,7 +5605,7 @@
         <v>23</v>
       </c>
       <c r="L156" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="157" spans="1:14">
@@ -5639,10 +5639,10 @@
       <c r="L157" t="s">
         <v>35</v>
       </c>
-      <c r="M157" s="5" t="s">
+      <c r="M157" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="N157" s="5"/>
+      <c r="N157" s="3"/>
     </row>
     <row r="158" spans="1:14">
       <c r="A158" t="s">
@@ -5675,8 +5675,8 @@
       <c r="L158" t="s">
         <v>40</v>
       </c>
-      <c r="M158" s="5"/>
-      <c r="N158" s="5"/>
+      <c r="M158" s="3"/>
+      <c r="N158" s="3"/>
     </row>
     <row r="159" spans="1:14">
       <c r="A159" t="s">
@@ -5691,8 +5691,8 @@
       <c r="L159" t="s">
         <v>36</v>
       </c>
-      <c r="M159" s="5"/>
-      <c r="N159" s="5"/>
+      <c r="M159" s="3"/>
+      <c r="N159" s="3"/>
     </row>
     <row r="160" spans="1:14">
       <c r="A160" t="s">
@@ -5725,8 +5725,8 @@
       <c r="L160" t="s">
         <v>36</v>
       </c>
-      <c r="M160" s="5"/>
-      <c r="N160" s="5"/>
+      <c r="M160" s="3"/>
+      <c r="N160" s="3"/>
     </row>
     <row r="161" spans="1:15">
       <c r="A161" t="s">
@@ -5759,8 +5759,8 @@
       <c r="L161" t="s">
         <v>36</v>
       </c>
-      <c r="M161" s="5"/>
-      <c r="N161" s="5"/>
+      <c r="M161" s="3"/>
+      <c r="N161" s="3"/>
     </row>
     <row r="162" spans="1:15">
       <c r="A162" t="s">
@@ -5793,8 +5793,8 @@
       <c r="L162" t="s">
         <v>36</v>
       </c>
-      <c r="M162" s="5"/>
-      <c r="N162" s="5"/>
+      <c r="M162" s="3"/>
+      <c r="N162" s="3"/>
     </row>
     <row r="163" spans="1:15">
       <c r="A163" t="s">
@@ -5827,8 +5827,8 @@
       <c r="L163" t="s">
         <v>36</v>
       </c>
-      <c r="M163" s="5"/>
-      <c r="N163" s="5"/>
+      <c r="M163" s="3"/>
+      <c r="N163" s="3"/>
     </row>
     <row r="164" spans="1:15">
       <c r="A164" t="s">
@@ -5861,8 +5861,8 @@
       <c r="L164" t="s">
         <v>36</v>
       </c>
-      <c r="M164" s="5"/>
-      <c r="N164" s="5"/>
+      <c r="M164" s="3"/>
+      <c r="N164" s="3"/>
     </row>
     <row r="165" spans="1:15">
       <c r="A165" t="s">
@@ -5895,8 +5895,8 @@
       <c r="L165" t="s">
         <v>36</v>
       </c>
-      <c r="M165" s="5"/>
-      <c r="N165" s="5"/>
+      <c r="M165" s="3"/>
+      <c r="N165" s="3"/>
     </row>
     <row r="166" spans="1:15">
       <c r="A166" t="s">
@@ -5911,8 +5911,8 @@
       <c r="L166" t="s">
         <v>37</v>
       </c>
-      <c r="M166" s="5"/>
-      <c r="N166" s="5"/>
+      <c r="M166" s="3"/>
+      <c r="N166" s="3"/>
     </row>
     <row r="167" spans="1:15">
       <c r="A167" t="s">
@@ -5939,14 +5939,14 @@
       <c r="H167">
         <v>1</v>
       </c>
-      <c r="I167" s="7">
+      <c r="I167" s="2">
         <v>165</v>
       </c>
       <c r="L167" t="s">
         <v>35</v>
       </c>
-      <c r="M167" s="5"/>
-      <c r="N167" s="5"/>
+      <c r="M167" s="3"/>
+      <c r="N167" s="3"/>
     </row>
     <row r="168" spans="1:15">
       <c r="A168" t="s">
@@ -6118,10 +6118,10 @@
       <c r="L174" t="s">
         <v>35</v>
       </c>
-      <c r="M174" s="5" t="s">
+      <c r="M174" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="N174" s="5"/>
+      <c r="N174" s="3"/>
     </row>
     <row r="175" spans="1:15">
       <c r="A175" t="s">
@@ -6154,8 +6154,8 @@
       <c r="L175" t="s">
         <v>40</v>
       </c>
-      <c r="M175" s="5"/>
-      <c r="N175" s="5"/>
+      <c r="M175" s="3"/>
+      <c r="N175" s="3"/>
     </row>
     <row r="176" spans="1:15">
       <c r="A176" t="s">
@@ -6170,8 +6170,8 @@
       <c r="L176" t="s">
         <v>36</v>
       </c>
-      <c r="M176" s="5"/>
-      <c r="N176" s="5"/>
+      <c r="M176" s="3"/>
+      <c r="N176" s="3"/>
     </row>
     <row r="177" spans="1:15">
       <c r="A177" t="s">
@@ -6204,8 +6204,8 @@
       <c r="L177" t="s">
         <v>36</v>
       </c>
-      <c r="M177" s="5"/>
-      <c r="N177" s="5"/>
+      <c r="M177" s="3"/>
+      <c r="N177" s="3"/>
     </row>
     <row r="178" spans="1:15">
       <c r="A178" t="s">
@@ -6238,8 +6238,8 @@
       <c r="L178" t="s">
         <v>36</v>
       </c>
-      <c r="M178" s="5"/>
-      <c r="N178" s="5"/>
+      <c r="M178" s="3"/>
+      <c r="N178" s="3"/>
     </row>
     <row r="179" spans="1:15">
       <c r="A179" t="s">
@@ -6272,8 +6272,8 @@
       <c r="L179" t="s">
         <v>36</v>
       </c>
-      <c r="M179" s="5"/>
-      <c r="N179" s="5"/>
+      <c r="M179" s="3"/>
+      <c r="N179" s="3"/>
     </row>
     <row r="180" spans="1:15">
       <c r="A180" t="s">
@@ -6306,8 +6306,8 @@
       <c r="L180" t="s">
         <v>36</v>
       </c>
-      <c r="M180" s="5"/>
-      <c r="N180" s="5"/>
+      <c r="M180" s="3"/>
+      <c r="N180" s="3"/>
     </row>
     <row r="181" spans="1:15">
       <c r="A181" t="s">
@@ -6340,8 +6340,8 @@
       <c r="L181" t="s">
         <v>36</v>
       </c>
-      <c r="M181" s="5"/>
-      <c r="N181" s="5"/>
+      <c r="M181" s="3"/>
+      <c r="N181" s="3"/>
     </row>
     <row r="182" spans="1:15">
       <c r="A182" t="s">
@@ -6374,8 +6374,8 @@
       <c r="L182" t="s">
         <v>36</v>
       </c>
-      <c r="M182" s="5"/>
-      <c r="N182" s="5"/>
+      <c r="M182" s="3"/>
+      <c r="N182" s="3"/>
     </row>
     <row r="183" spans="1:15">
       <c r="A183" t="s">
@@ -6390,8 +6390,8 @@
       <c r="L183" t="s">
         <v>37</v>
       </c>
-      <c r="M183" s="5"/>
-      <c r="N183" s="5"/>
+      <c r="M183" s="3"/>
+      <c r="N183" s="3"/>
     </row>
     <row r="184" spans="1:15">
       <c r="A184" t="s">
@@ -6418,14 +6418,14 @@
       <c r="H184">
         <v>1</v>
       </c>
-      <c r="I184" s="7">
+      <c r="I184" s="2">
         <v>182</v>
       </c>
       <c r="L184" t="s">
         <v>35</v>
       </c>
-      <c r="M184" s="5"/>
-      <c r="N184" s="5"/>
+      <c r="M184" s="3"/>
+      <c r="N184" s="3"/>
     </row>
     <row r="185" spans="1:15">
       <c r="A185" t="s">
@@ -6597,10 +6597,10 @@
       <c r="L191" t="s">
         <v>35</v>
       </c>
-      <c r="M191" s="5" t="s">
+      <c r="M191" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="N191" s="5"/>
+      <c r="N191" s="3"/>
     </row>
     <row r="192" spans="1:15">
       <c r="A192" t="s">
@@ -6633,8 +6633,8 @@
       <c r="L192" t="s">
         <v>40</v>
       </c>
-      <c r="M192" s="5"/>
-      <c r="N192" s="5"/>
+      <c r="M192" s="3"/>
+      <c r="N192" s="3"/>
     </row>
     <row r="193" spans="1:15">
       <c r="A193" t="s">
@@ -6649,8 +6649,8 @@
       <c r="L193" t="s">
         <v>36</v>
       </c>
-      <c r="M193" s="5"/>
-      <c r="N193" s="5"/>
+      <c r="M193" s="3"/>
+      <c r="N193" s="3"/>
     </row>
     <row r="194" spans="1:15">
       <c r="A194" t="s">
@@ -6683,8 +6683,8 @@
       <c r="L194" t="s">
         <v>36</v>
       </c>
-      <c r="M194" s="5"/>
-      <c r="N194" s="5"/>
+      <c r="M194" s="3"/>
+      <c r="N194" s="3"/>
     </row>
     <row r="195" spans="1:15">
       <c r="A195" t="s">
@@ -6717,8 +6717,8 @@
       <c r="L195" t="s">
         <v>36</v>
       </c>
-      <c r="M195" s="5"/>
-      <c r="N195" s="5"/>
+      <c r="M195" s="3"/>
+      <c r="N195" s="3"/>
     </row>
     <row r="196" spans="1:15">
       <c r="A196" t="s">
@@ -6751,8 +6751,8 @@
       <c r="L196" t="s">
         <v>36</v>
       </c>
-      <c r="M196" s="5"/>
-      <c r="N196" s="5"/>
+      <c r="M196" s="3"/>
+      <c r="N196" s="3"/>
     </row>
     <row r="197" spans="1:15">
       <c r="A197" t="s">
@@ -6785,8 +6785,8 @@
       <c r="L197" t="s">
         <v>36</v>
       </c>
-      <c r="M197" s="5"/>
-      <c r="N197" s="5"/>
+      <c r="M197" s="3"/>
+      <c r="N197" s="3"/>
     </row>
     <row r="198" spans="1:15">
       <c r="A198" t="s">
@@ -6819,8 +6819,8 @@
       <c r="L198" t="s">
         <v>36</v>
       </c>
-      <c r="M198" s="5"/>
-      <c r="N198" s="5"/>
+      <c r="M198" s="3"/>
+      <c r="N198" s="3"/>
     </row>
     <row r="199" spans="1:15">
       <c r="A199" t="s">
@@ -6853,8 +6853,8 @@
       <c r="L199" t="s">
         <v>36</v>
       </c>
-      <c r="M199" s="5"/>
-      <c r="N199" s="5"/>
+      <c r="M199" s="3"/>
+      <c r="N199" s="3"/>
     </row>
     <row r="200" spans="1:15">
       <c r="A200" t="s">
@@ -6869,8 +6869,8 @@
       <c r="L200" t="s">
         <v>37</v>
       </c>
-      <c r="M200" s="5"/>
-      <c r="N200" s="5"/>
+      <c r="M200" s="3"/>
+      <c r="N200" s="3"/>
     </row>
     <row r="201" spans="1:15">
       <c r="A201" t="s">
@@ -6903,8 +6903,8 @@
       <c r="L201" t="s">
         <v>35</v>
       </c>
-      <c r="M201" s="5"/>
-      <c r="N201" s="5"/>
+      <c r="M201" s="3"/>
+      <c r="N201" s="3"/>
     </row>
     <row r="202" spans="1:15">
       <c r="A202" t="s">
@@ -6985,23 +6985,42 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="M174:N184"/>
-    <mergeCell ref="L185:N187"/>
-    <mergeCell ref="L189:N189"/>
-    <mergeCell ref="M191:N201"/>
-    <mergeCell ref="L202:N204"/>
+    <mergeCell ref="L48:L50"/>
+    <mergeCell ref="L4:L6"/>
+    <mergeCell ref="L11:L13"/>
+    <mergeCell ref="L14:L16"/>
+    <mergeCell ref="L17:L19"/>
+    <mergeCell ref="L27:L29"/>
+    <mergeCell ref="L30:L32"/>
+    <mergeCell ref="L33:L35"/>
+    <mergeCell ref="L36:L38"/>
+    <mergeCell ref="L39:L41"/>
+    <mergeCell ref="L42:L44"/>
+    <mergeCell ref="L45:L47"/>
+    <mergeCell ref="L91:L93"/>
+    <mergeCell ref="L51:L53"/>
+    <mergeCell ref="L54:L56"/>
+    <mergeCell ref="L64:L66"/>
+    <mergeCell ref="L67:L69"/>
+    <mergeCell ref="L70:L72"/>
+    <mergeCell ref="L73:L75"/>
+    <mergeCell ref="L76:L78"/>
+    <mergeCell ref="L79:L81"/>
+    <mergeCell ref="L82:L84"/>
+    <mergeCell ref="L85:L87"/>
+    <mergeCell ref="L88:L90"/>
+    <mergeCell ref="L155:N155"/>
+    <mergeCell ref="M157:N167"/>
+    <mergeCell ref="L168:N170"/>
+    <mergeCell ref="L172:N172"/>
+    <mergeCell ref="L136:N137"/>
+    <mergeCell ref="L139:N139"/>
     <mergeCell ref="L1:N1"/>
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="N2:N135"/>
     <mergeCell ref="L152:N153"/>
     <mergeCell ref="M141:N151"/>
-    <mergeCell ref="L155:N155"/>
-    <mergeCell ref="M157:N167"/>
-    <mergeCell ref="L168:N170"/>
-    <mergeCell ref="L172:N172"/>
-    <mergeCell ref="L136:N137"/>
     <mergeCell ref="M119:M135"/>
-    <mergeCell ref="L139:N139"/>
     <mergeCell ref="L101:L103"/>
     <mergeCell ref="L104:L106"/>
     <mergeCell ref="L107:L109"/>
@@ -7012,30 +7031,11 @@
     <mergeCell ref="M23:M59"/>
     <mergeCell ref="M60:M96"/>
     <mergeCell ref="M97:M118"/>
-    <mergeCell ref="L76:L78"/>
-    <mergeCell ref="L79:L81"/>
-    <mergeCell ref="L82:L84"/>
-    <mergeCell ref="L85:L87"/>
-    <mergeCell ref="L88:L90"/>
-    <mergeCell ref="L91:L93"/>
-    <mergeCell ref="L51:L53"/>
-    <mergeCell ref="L54:L56"/>
-    <mergeCell ref="L64:L66"/>
-    <mergeCell ref="L67:L69"/>
-    <mergeCell ref="L70:L72"/>
-    <mergeCell ref="L73:L75"/>
-    <mergeCell ref="L33:L35"/>
-    <mergeCell ref="L36:L38"/>
-    <mergeCell ref="L39:L41"/>
-    <mergeCell ref="L42:L44"/>
-    <mergeCell ref="L45:L47"/>
-    <mergeCell ref="L48:L50"/>
-    <mergeCell ref="L4:L6"/>
-    <mergeCell ref="L11:L13"/>
-    <mergeCell ref="L14:L16"/>
-    <mergeCell ref="L17:L19"/>
-    <mergeCell ref="L27:L29"/>
-    <mergeCell ref="L30:L32"/>
+    <mergeCell ref="M174:N184"/>
+    <mergeCell ref="L185:N187"/>
+    <mergeCell ref="L189:N189"/>
+    <mergeCell ref="M191:N201"/>
+    <mergeCell ref="L202:N204"/>
   </mergeCells>
   <phoneticPr fontId="18"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/tools/yolov4x-mish.xlsx
+++ b/tools/yolov4x-mish.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maruyama/Projects/private/public/yolo_various_platforms/tools/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D98D3AB2-AC9C-A842-AE15-34637232C2B8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{461A8A1C-917D-AF48-BE1C-3754EA8272F3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8060" yWindow="19020" windowWidth="18920" windowHeight="16120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="yolov4x-mish" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="59">
   <si>
     <t>type</t>
   </si>
@@ -148,12 +148,6 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>SPP
-CSPnet
-2!!</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>direct</t>
     <phoneticPr fontId="18"/>
   </si>
@@ -231,6 +225,16 @@
   </si>
   <si>
     <t>concat(x, x_151)</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>DarknetConvSeq
+CSPnet</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>SPP
+CSPnet</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -399,7 +403,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -591,6 +595,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="13">
     <border>
@@ -708,40 +730,44 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color theme="8"/>
+      <left style="thin">
+        <color theme="3"/>
       </left>
-      <right style="medium">
-        <color theme="8"/>
+      <right style="thin">
+        <color theme="3"/>
       </right>
-      <top style="medium">
-        <color theme="8"/>
+      <top style="thin">
+        <color theme="3"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color theme="3"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color theme="8"/>
+      <left style="thin">
+        <color theme="3"/>
       </left>
-      <right style="medium">
-        <color theme="8"/>
-      </right>
-      <top/>
-      <bottom/>
+      <right/>
+      <top style="thin">
+        <color theme="3"/>
+      </top>
+      <bottom style="thin">
+        <color theme="3"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color theme="8"/>
+      <left style="thin">
+        <color theme="3"/>
       </left>
-      <right style="medium">
-        <color theme="8"/>
+      <right style="thin">
+        <color theme="3"/>
       </right>
-      <top/>
-      <bottom style="medium">
-        <color theme="8"/>
-      </bottom>
+      <top style="thin">
+        <color theme="3"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -873,7 +899,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -884,19 +910,49 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1255,8 +1311,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F125" workbookViewId="0">
-      <selection activeCell="L157" sqref="L157"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1299,13 +1355,13 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
+      <c r="L1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
       <c r="O1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -1336,15 +1392,15 @@
       <c r="I2">
         <v>0</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" s="3"/>
+      <c r="N2" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="M2" s="4"/>
-      <c r="N2" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="21" thickBot="1">
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1375,10 +1431,10 @@
       <c r="L3" t="s">
         <v>35</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="N3" s="4"/>
+      <c r="N3" s="8"/>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
@@ -1408,11 +1464,11 @@
       <c r="I4">
         <v>2</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="L4" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="8"/>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
@@ -1442,11 +1498,11 @@
       <c r="I5">
         <v>3</v>
       </c>
-      <c r="L5" s="6"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-    </row>
-    <row r="6" spans="1:15" ht="21" thickBot="1">
+      <c r="L5" s="7"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="8"/>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -1460,8 +1516,8 @@
         <v>-3</v>
       </c>
       <c r="L6" s="7"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="8"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
@@ -1494,10 +1550,10 @@
       <c r="L7" t="s">
         <v>35</v>
       </c>
-      <c r="M7" s="3" t="s">
+      <c r="M7" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="N7" s="4"/>
+      <c r="N7" s="8"/>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
@@ -1528,10 +1584,10 @@
         <v>6</v>
       </c>
       <c r="L8" t="s">
-        <v>40</v>
-      </c>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
+        <v>39</v>
+      </c>
+      <c r="M8" s="16"/>
+      <c r="N8" s="8"/>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" t="s">
@@ -1546,10 +1602,10 @@
       <c r="L9" t="s">
         <v>36</v>
       </c>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-    </row>
-    <row r="10" spans="1:15" ht="21" thickBot="1">
+      <c r="M9" s="16"/>
+      <c r="N9" s="8"/>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1580,8 +1636,8 @@
       <c r="L10" t="s">
         <v>36</v>
       </c>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="8"/>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" t="s">
@@ -1611,11 +1667,11 @@
       <c r="I11">
         <v>9</v>
       </c>
-      <c r="L11" s="5" t="s">
+      <c r="L11" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="8"/>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" t="s">
@@ -1645,11 +1701,11 @@
       <c r="I12">
         <v>10</v>
       </c>
-      <c r="L12" s="6"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-    </row>
-    <row r="13" spans="1:15" ht="21" thickBot="1">
+      <c r="L12" s="7"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="8"/>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1663,8 +1719,8 @@
         <v>-3</v>
       </c>
       <c r="L13" s="7"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="8"/>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" t="s">
@@ -1694,11 +1750,11 @@
       <c r="I14">
         <v>12</v>
       </c>
-      <c r="L14" s="5" t="s">
+      <c r="L14" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="8"/>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" t="s">
@@ -1728,11 +1784,11 @@
       <c r="I15">
         <v>13</v>
       </c>
-      <c r="L15" s="6"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-    </row>
-    <row r="16" spans="1:15" ht="21" thickBot="1">
+      <c r="L15" s="7"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="8"/>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -1746,8 +1802,8 @@
         <v>-3</v>
       </c>
       <c r="L16" s="7"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="8"/>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" t="s">
@@ -1777,11 +1833,11 @@
       <c r="I17">
         <v>15</v>
       </c>
-      <c r="L17" s="5" t="s">
+      <c r="L17" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="8"/>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" t="s">
@@ -1811,11 +1867,11 @@
       <c r="I18">
         <v>16</v>
       </c>
-      <c r="L18" s="6"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-    </row>
-    <row r="19" spans="1:14" ht="21" thickBot="1">
+      <c r="L18" s="7"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="8"/>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -1829,8 +1885,8 @@
         <v>-3</v>
       </c>
       <c r="L19" s="7"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="8"/>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" t="s">
@@ -1863,8 +1919,8 @@
       <c r="L20" t="s">
         <v>36</v>
       </c>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="8"/>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" t="s">
@@ -1879,8 +1935,8 @@
       <c r="L21" t="s">
         <v>37</v>
       </c>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="8"/>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" t="s">
@@ -1913,8 +1969,8 @@
       <c r="L22" t="s">
         <v>35</v>
       </c>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
+      <c r="M22" s="16"/>
+      <c r="N22" s="8"/>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" t="s">
@@ -1947,10 +2003,10 @@
       <c r="L23" t="s">
         <v>35</v>
       </c>
-      <c r="M23" s="3" t="s">
+      <c r="M23" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="N23" s="4"/>
+      <c r="N23" s="8"/>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" t="s">
@@ -1981,10 +2037,10 @@
         <v>22</v>
       </c>
       <c r="L24" t="s">
-        <v>40</v>
-      </c>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
+        <v>39</v>
+      </c>
+      <c r="M24" s="16"/>
+      <c r="N24" s="8"/>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" t="s">
@@ -1999,10 +2055,10 @@
       <c r="L25" t="s">
         <v>36</v>
       </c>
-      <c r="M25" s="4"/>
-      <c r="N25" s="4"/>
-    </row>
-    <row r="26" spans="1:14" ht="21" thickBot="1">
+      <c r="M25" s="16"/>
+      <c r="N25" s="8"/>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26" t="s">
         <v>11</v>
       </c>
@@ -2033,8 +2089,8 @@
       <c r="L26" t="s">
         <v>36</v>
       </c>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
+      <c r="M26" s="16"/>
+      <c r="N26" s="8"/>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" t="s">
@@ -2064,11 +2120,11 @@
       <c r="I27">
         <v>25</v>
       </c>
-      <c r="L27" s="5" t="s">
+      <c r="L27" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4"/>
+      <c r="M27" s="16"/>
+      <c r="N27" s="8"/>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" t="s">
@@ -2098,11 +2154,11 @@
       <c r="I28">
         <v>26</v>
       </c>
-      <c r="L28" s="6"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
-    </row>
-    <row r="29" spans="1:14" ht="21" thickBot="1">
+      <c r="L28" s="5"/>
+      <c r="M28" s="16"/>
+      <c r="N28" s="8"/>
+    </row>
+    <row r="29" spans="1:14">
       <c r="A29" t="s">
         <v>13</v>
       </c>
@@ -2115,9 +2171,9 @@
       <c r="J29">
         <v>-3</v>
       </c>
-      <c r="L29" s="7"/>
-      <c r="M29" s="4"/>
-      <c r="N29" s="4"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="16"/>
+      <c r="N29" s="8"/>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" t="s">
@@ -2147,11 +2203,11 @@
       <c r="I30">
         <v>28</v>
       </c>
-      <c r="L30" s="5" t="s">
+      <c r="L30" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="M30" s="4"/>
-      <c r="N30" s="4"/>
+      <c r="M30" s="16"/>
+      <c r="N30" s="8"/>
     </row>
     <row r="31" spans="1:14">
       <c r="A31" t="s">
@@ -2181,11 +2237,11 @@
       <c r="I31">
         <v>29</v>
       </c>
-      <c r="L31" s="6"/>
-      <c r="M31" s="4"/>
-      <c r="N31" s="4"/>
-    </row>
-    <row r="32" spans="1:14" ht="21" thickBot="1">
+      <c r="L31" s="5"/>
+      <c r="M31" s="16"/>
+      <c r="N31" s="8"/>
+    </row>
+    <row r="32" spans="1:14">
       <c r="A32" t="s">
         <v>13</v>
       </c>
@@ -2198,9 +2254,9 @@
       <c r="J32">
         <v>-3</v>
       </c>
-      <c r="L32" s="7"/>
-      <c r="M32" s="4"/>
-      <c r="N32" s="4"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="16"/>
+      <c r="N32" s="8"/>
     </row>
     <row r="33" spans="1:14">
       <c r="A33" t="s">
@@ -2230,11 +2286,11 @@
       <c r="I33">
         <v>31</v>
       </c>
-      <c r="L33" s="5" t="s">
+      <c r="L33" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="M33" s="4"/>
-      <c r="N33" s="4"/>
+      <c r="M33" s="16"/>
+      <c r="N33" s="8"/>
     </row>
     <row r="34" spans="1:14">
       <c r="A34" t="s">
@@ -2264,11 +2320,11 @@
       <c r="I34">
         <v>32</v>
       </c>
-      <c r="L34" s="6"/>
-      <c r="M34" s="4"/>
-      <c r="N34" s="4"/>
-    </row>
-    <row r="35" spans="1:14" ht="21" thickBot="1">
+      <c r="L34" s="5"/>
+      <c r="M34" s="16"/>
+      <c r="N34" s="8"/>
+    </row>
+    <row r="35" spans="1:14">
       <c r="A35" t="s">
         <v>13</v>
       </c>
@@ -2281,9 +2337,9 @@
       <c r="J35">
         <v>-3</v>
       </c>
-      <c r="L35" s="7"/>
-      <c r="M35" s="4"/>
-      <c r="N35" s="4"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="16"/>
+      <c r="N35" s="8"/>
     </row>
     <row r="36" spans="1:14">
       <c r="A36" t="s">
@@ -2313,11 +2369,11 @@
       <c r="I36">
         <v>34</v>
       </c>
-      <c r="L36" s="5" t="s">
+      <c r="L36" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="M36" s="4"/>
-      <c r="N36" s="4"/>
+      <c r="M36" s="16"/>
+      <c r="N36" s="8"/>
     </row>
     <row r="37" spans="1:14">
       <c r="A37" t="s">
@@ -2347,11 +2403,11 @@
       <c r="I37">
         <v>35</v>
       </c>
-      <c r="L37" s="6"/>
-      <c r="M37" s="4"/>
-      <c r="N37" s="4"/>
-    </row>
-    <row r="38" spans="1:14" ht="21" thickBot="1">
+      <c r="L37" s="5"/>
+      <c r="M37" s="16"/>
+      <c r="N37" s="8"/>
+    </row>
+    <row r="38" spans="1:14">
       <c r="A38" t="s">
         <v>13</v>
       </c>
@@ -2364,9 +2420,9 @@
       <c r="J38">
         <v>-3</v>
       </c>
-      <c r="L38" s="7"/>
-      <c r="M38" s="4"/>
-      <c r="N38" s="4"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="16"/>
+      <c r="N38" s="8"/>
     </row>
     <row r="39" spans="1:14">
       <c r="A39" t="s">
@@ -2396,11 +2452,11 @@
       <c r="I39">
         <v>37</v>
       </c>
-      <c r="L39" s="5" t="s">
+      <c r="L39" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="M39" s="4"/>
-      <c r="N39" s="4"/>
+      <c r="M39" s="16"/>
+      <c r="N39" s="8"/>
     </row>
     <row r="40" spans="1:14">
       <c r="A40" t="s">
@@ -2430,11 +2486,11 @@
       <c r="I40">
         <v>38</v>
       </c>
-      <c r="L40" s="6"/>
-      <c r="M40" s="4"/>
-      <c r="N40" s="4"/>
-    </row>
-    <row r="41" spans="1:14" ht="21" thickBot="1">
+      <c r="L40" s="5"/>
+      <c r="M40" s="16"/>
+      <c r="N40" s="8"/>
+    </row>
+    <row r="41" spans="1:14">
       <c r="A41" t="s">
         <v>13</v>
       </c>
@@ -2447,9 +2503,9 @@
       <c r="J41">
         <v>-3</v>
       </c>
-      <c r="L41" s="7"/>
-      <c r="M41" s="4"/>
-      <c r="N41" s="4"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="16"/>
+      <c r="N41" s="8"/>
     </row>
     <row r="42" spans="1:14">
       <c r="A42" t="s">
@@ -2479,11 +2535,11 @@
       <c r="I42">
         <v>40</v>
       </c>
-      <c r="L42" s="5" t="s">
+      <c r="L42" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="M42" s="4"/>
-      <c r="N42" s="4"/>
+      <c r="M42" s="16"/>
+      <c r="N42" s="8"/>
     </row>
     <row r="43" spans="1:14">
       <c r="A43" t="s">
@@ -2513,11 +2569,11 @@
       <c r="I43">
         <v>41</v>
       </c>
-      <c r="L43" s="6"/>
-      <c r="M43" s="4"/>
-      <c r="N43" s="4"/>
-    </row>
-    <row r="44" spans="1:14" ht="21" thickBot="1">
+      <c r="L43" s="5"/>
+      <c r="M43" s="16"/>
+      <c r="N43" s="8"/>
+    </row>
+    <row r="44" spans="1:14">
       <c r="A44" t="s">
         <v>13</v>
       </c>
@@ -2530,9 +2586,9 @@
       <c r="J44">
         <v>-3</v>
       </c>
-      <c r="L44" s="7"/>
-      <c r="M44" s="4"/>
-      <c r="N44" s="4"/>
+      <c r="L44" s="5"/>
+      <c r="M44" s="16"/>
+      <c r="N44" s="8"/>
     </row>
     <row r="45" spans="1:14">
       <c r="A45" t="s">
@@ -2562,11 +2618,11 @@
       <c r="I45">
         <v>43</v>
       </c>
-      <c r="L45" s="5" t="s">
+      <c r="L45" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="M45" s="4"/>
-      <c r="N45" s="4"/>
+      <c r="M45" s="16"/>
+      <c r="N45" s="8"/>
     </row>
     <row r="46" spans="1:14">
       <c r="A46" t="s">
@@ -2596,11 +2652,11 @@
       <c r="I46">
         <v>44</v>
       </c>
-      <c r="L46" s="6"/>
-      <c r="M46" s="4"/>
-      <c r="N46" s="4"/>
-    </row>
-    <row r="47" spans="1:14" ht="21" thickBot="1">
+      <c r="L46" s="5"/>
+      <c r="M46" s="16"/>
+      <c r="N46" s="8"/>
+    </row>
+    <row r="47" spans="1:14">
       <c r="A47" t="s">
         <v>13</v>
       </c>
@@ -2613,9 +2669,9 @@
       <c r="J47">
         <v>-3</v>
       </c>
-      <c r="L47" s="7"/>
-      <c r="M47" s="4"/>
-      <c r="N47" s="4"/>
+      <c r="L47" s="5"/>
+      <c r="M47" s="16"/>
+      <c r="N47" s="8"/>
     </row>
     <row r="48" spans="1:14">
       <c r="A48" t="s">
@@ -2645,11 +2701,11 @@
       <c r="I48">
         <v>46</v>
       </c>
-      <c r="L48" s="5" t="s">
+      <c r="L48" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="M48" s="4"/>
-      <c r="N48" s="4"/>
+      <c r="M48" s="16"/>
+      <c r="N48" s="8"/>
     </row>
     <row r="49" spans="1:14">
       <c r="A49" t="s">
@@ -2679,11 +2735,11 @@
       <c r="I49">
         <v>47</v>
       </c>
-      <c r="L49" s="6"/>
-      <c r="M49" s="4"/>
-      <c r="N49" s="4"/>
-    </row>
-    <row r="50" spans="1:14" ht="21" thickBot="1">
+      <c r="L49" s="5"/>
+      <c r="M49" s="16"/>
+      <c r="N49" s="8"/>
+    </row>
+    <row r="50" spans="1:14">
       <c r="A50" t="s">
         <v>13</v>
       </c>
@@ -2696,9 +2752,9 @@
       <c r="J50">
         <v>-3</v>
       </c>
-      <c r="L50" s="7"/>
-      <c r="M50" s="4"/>
-      <c r="N50" s="4"/>
+      <c r="L50" s="5"/>
+      <c r="M50" s="16"/>
+      <c r="N50" s="8"/>
     </row>
     <row r="51" spans="1:14">
       <c r="A51" t="s">
@@ -2728,11 +2784,11 @@
       <c r="I51">
         <v>49</v>
       </c>
-      <c r="L51" s="5" t="s">
+      <c r="L51" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="M51" s="4"/>
-      <c r="N51" s="4"/>
+      <c r="M51" s="16"/>
+      <c r="N51" s="8"/>
     </row>
     <row r="52" spans="1:14">
       <c r="A52" t="s">
@@ -2762,11 +2818,11 @@
       <c r="I52">
         <v>50</v>
       </c>
-      <c r="L52" s="6"/>
-      <c r="M52" s="4"/>
-      <c r="N52" s="4"/>
-    </row>
-    <row r="53" spans="1:14" ht="21" thickBot="1">
+      <c r="L52" s="5"/>
+      <c r="M52" s="16"/>
+      <c r="N52" s="8"/>
+    </row>
+    <row r="53" spans="1:14">
       <c r="A53" t="s">
         <v>13</v>
       </c>
@@ -2779,9 +2835,9 @@
       <c r="J53">
         <v>-3</v>
       </c>
-      <c r="L53" s="7"/>
-      <c r="M53" s="4"/>
-      <c r="N53" s="4"/>
+      <c r="L53" s="5"/>
+      <c r="M53" s="16"/>
+      <c r="N53" s="8"/>
     </row>
     <row r="54" spans="1:14">
       <c r="A54" t="s">
@@ -2811,11 +2867,11 @@
       <c r="I54">
         <v>52</v>
       </c>
-      <c r="L54" s="5" t="s">
+      <c r="L54" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="M54" s="4"/>
-      <c r="N54" s="4"/>
+      <c r="M54" s="16"/>
+      <c r="N54" s="8"/>
     </row>
     <row r="55" spans="1:14">
       <c r="A55" t="s">
@@ -2845,11 +2901,11 @@
       <c r="I55">
         <v>53</v>
       </c>
-      <c r="L55" s="6"/>
-      <c r="M55" s="4"/>
-      <c r="N55" s="4"/>
-    </row>
-    <row r="56" spans="1:14" ht="21" thickBot="1">
+      <c r="L55" s="5"/>
+      <c r="M55" s="16"/>
+      <c r="N55" s="8"/>
+    </row>
+    <row r="56" spans="1:14">
       <c r="A56" t="s">
         <v>13</v>
       </c>
@@ -2862,9 +2918,9 @@
       <c r="J56">
         <v>-3</v>
       </c>
-      <c r="L56" s="7"/>
-      <c r="M56" s="4"/>
-      <c r="N56" s="4"/>
+      <c r="L56" s="5"/>
+      <c r="M56" s="16"/>
+      <c r="N56" s="8"/>
     </row>
     <row r="57" spans="1:14">
       <c r="A57" t="s">
@@ -2897,8 +2953,8 @@
       <c r="L57" t="s">
         <v>36</v>
       </c>
-      <c r="M57" s="4"/>
-      <c r="N57" s="4"/>
+      <c r="M57" s="16"/>
+      <c r="N57" s="8"/>
     </row>
     <row r="58" spans="1:14">
       <c r="A58" t="s">
@@ -2913,8 +2969,8 @@
       <c r="L58" t="s">
         <v>37</v>
       </c>
-      <c r="M58" s="4"/>
-      <c r="N58" s="4"/>
+      <c r="M58" s="16"/>
+      <c r="N58" s="8"/>
     </row>
     <row r="59" spans="1:14">
       <c r="A59" t="s">
@@ -2947,8 +3003,8 @@
       <c r="L59" t="s">
         <v>35</v>
       </c>
-      <c r="M59" s="4"/>
-      <c r="N59" s="4"/>
+      <c r="M59" s="16"/>
+      <c r="N59" s="8"/>
     </row>
     <row r="60" spans="1:14">
       <c r="A60" t="s">
@@ -2981,10 +3037,10 @@
       <c r="L60" t="s">
         <v>35</v>
       </c>
-      <c r="M60" s="3" t="s">
+      <c r="M60" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="N60" s="4"/>
+      <c r="N60" s="8"/>
     </row>
     <row r="61" spans="1:14">
       <c r="A61" t="s">
@@ -3015,10 +3071,10 @@
         <v>59</v>
       </c>
       <c r="L61" t="s">
-        <v>40</v>
-      </c>
-      <c r="M61" s="4"/>
-      <c r="N61" s="4"/>
+        <v>39</v>
+      </c>
+      <c r="M61" s="16"/>
+      <c r="N61" s="8"/>
     </row>
     <row r="62" spans="1:14">
       <c r="A62" t="s">
@@ -3033,10 +3089,10 @@
       <c r="L62" t="s">
         <v>36</v>
       </c>
-      <c r="M62" s="4"/>
-      <c r="N62" s="4"/>
-    </row>
-    <row r="63" spans="1:14" ht="21" thickBot="1">
+      <c r="M62" s="16"/>
+      <c r="N62" s="8"/>
+    </row>
+    <row r="63" spans="1:14">
       <c r="A63" t="s">
         <v>11</v>
       </c>
@@ -3067,8 +3123,8 @@
       <c r="L63" t="s">
         <v>36</v>
       </c>
-      <c r="M63" s="4"/>
-      <c r="N63" s="4"/>
+      <c r="M63" s="16"/>
+      <c r="N63" s="8"/>
     </row>
     <row r="64" spans="1:14">
       <c r="A64" t="s">
@@ -3098,11 +3154,11 @@
       <c r="I64">
         <v>62</v>
       </c>
-      <c r="L64" s="5" t="s">
+      <c r="L64" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="M64" s="4"/>
-      <c r="N64" s="4"/>
+      <c r="M64" s="16"/>
+      <c r="N64" s="8"/>
     </row>
     <row r="65" spans="1:14">
       <c r="A65" t="s">
@@ -3132,11 +3188,11 @@
       <c r="I65">
         <v>63</v>
       </c>
-      <c r="L65" s="6"/>
-      <c r="M65" s="4"/>
-      <c r="N65" s="4"/>
-    </row>
-    <row r="66" spans="1:14" ht="21" thickBot="1">
+      <c r="L65" s="5"/>
+      <c r="M65" s="16"/>
+      <c r="N65" s="8"/>
+    </row>
+    <row r="66" spans="1:14">
       <c r="A66" t="s">
         <v>13</v>
       </c>
@@ -3149,9 +3205,9 @@
       <c r="J66">
         <v>-3</v>
       </c>
-      <c r="L66" s="7"/>
-      <c r="M66" s="4"/>
-      <c r="N66" s="4"/>
+      <c r="L66" s="5"/>
+      <c r="M66" s="16"/>
+      <c r="N66" s="8"/>
     </row>
     <row r="67" spans="1:14">
       <c r="A67" t="s">
@@ -3181,11 +3237,11 @@
       <c r="I67">
         <v>65</v>
       </c>
-      <c r="L67" s="5" t="s">
+      <c r="L67" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="M67" s="4"/>
-      <c r="N67" s="4"/>
+      <c r="M67" s="16"/>
+      <c r="N67" s="8"/>
     </row>
     <row r="68" spans="1:14">
       <c r="A68" t="s">
@@ -3215,11 +3271,11 @@
       <c r="I68">
         <v>66</v>
       </c>
-      <c r="L68" s="6"/>
-      <c r="M68" s="4"/>
-      <c r="N68" s="4"/>
-    </row>
-    <row r="69" spans="1:14" ht="21" thickBot="1">
+      <c r="L68" s="5"/>
+      <c r="M68" s="16"/>
+      <c r="N68" s="8"/>
+    </row>
+    <row r="69" spans="1:14">
       <c r="A69" t="s">
         <v>13</v>
       </c>
@@ -3232,9 +3288,9 @@
       <c r="J69">
         <v>-3</v>
       </c>
-      <c r="L69" s="7"/>
-      <c r="M69" s="4"/>
-      <c r="N69" s="4"/>
+      <c r="L69" s="5"/>
+      <c r="M69" s="16"/>
+      <c r="N69" s="8"/>
     </row>
     <row r="70" spans="1:14">
       <c r="A70" t="s">
@@ -3264,11 +3320,11 @@
       <c r="I70">
         <v>68</v>
       </c>
-      <c r="L70" s="5" t="s">
+      <c r="L70" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="M70" s="4"/>
-      <c r="N70" s="4"/>
+      <c r="M70" s="16"/>
+      <c r="N70" s="8"/>
     </row>
     <row r="71" spans="1:14">
       <c r="A71" t="s">
@@ -3298,11 +3354,11 @@
       <c r="I71">
         <v>69</v>
       </c>
-      <c r="L71" s="6"/>
-      <c r="M71" s="4"/>
-      <c r="N71" s="4"/>
-    </row>
-    <row r="72" spans="1:14" ht="21" thickBot="1">
+      <c r="L71" s="5"/>
+      <c r="M71" s="16"/>
+      <c r="N71" s="8"/>
+    </row>
+    <row r="72" spans="1:14">
       <c r="A72" t="s">
         <v>13</v>
       </c>
@@ -3315,9 +3371,9 @@
       <c r="J72">
         <v>-3</v>
       </c>
-      <c r="L72" s="7"/>
-      <c r="M72" s="4"/>
-      <c r="N72" s="4"/>
+      <c r="L72" s="5"/>
+      <c r="M72" s="16"/>
+      <c r="N72" s="8"/>
     </row>
     <row r="73" spans="1:14">
       <c r="A73" t="s">
@@ -3347,11 +3403,11 @@
       <c r="I73">
         <v>71</v>
       </c>
-      <c r="L73" s="5" t="s">
+      <c r="L73" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="M73" s="4"/>
-      <c r="N73" s="4"/>
+      <c r="M73" s="16"/>
+      <c r="N73" s="8"/>
     </row>
     <row r="74" spans="1:14">
       <c r="A74" t="s">
@@ -3381,11 +3437,11 @@
       <c r="I74">
         <v>72</v>
       </c>
-      <c r="L74" s="6"/>
-      <c r="M74" s="4"/>
-      <c r="N74" s="4"/>
-    </row>
-    <row r="75" spans="1:14" ht="21" thickBot="1">
+      <c r="L74" s="5"/>
+      <c r="M74" s="16"/>
+      <c r="N74" s="8"/>
+    </row>
+    <row r="75" spans="1:14">
       <c r="A75" t="s">
         <v>13</v>
       </c>
@@ -3398,9 +3454,9 @@
       <c r="J75">
         <v>-3</v>
       </c>
-      <c r="L75" s="7"/>
-      <c r="M75" s="4"/>
-      <c r="N75" s="4"/>
+      <c r="L75" s="5"/>
+      <c r="M75" s="16"/>
+      <c r="N75" s="8"/>
     </row>
     <row r="76" spans="1:14">
       <c r="A76" t="s">
@@ -3430,11 +3486,11 @@
       <c r="I76">
         <v>74</v>
       </c>
-      <c r="L76" s="5" t="s">
+      <c r="L76" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="M76" s="4"/>
-      <c r="N76" s="4"/>
+      <c r="M76" s="16"/>
+      <c r="N76" s="8"/>
     </row>
     <row r="77" spans="1:14">
       <c r="A77" t="s">
@@ -3464,11 +3520,11 @@
       <c r="I77">
         <v>75</v>
       </c>
-      <c r="L77" s="6"/>
-      <c r="M77" s="4"/>
-      <c r="N77" s="4"/>
-    </row>
-    <row r="78" spans="1:14" ht="21" thickBot="1">
+      <c r="L77" s="5"/>
+      <c r="M77" s="16"/>
+      <c r="N77" s="8"/>
+    </row>
+    <row r="78" spans="1:14">
       <c r="A78" t="s">
         <v>13</v>
       </c>
@@ -3481,9 +3537,9 @@
       <c r="J78">
         <v>-3</v>
       </c>
-      <c r="L78" s="7"/>
-      <c r="M78" s="4"/>
-      <c r="N78" s="4"/>
+      <c r="L78" s="5"/>
+      <c r="M78" s="16"/>
+      <c r="N78" s="8"/>
     </row>
     <row r="79" spans="1:14">
       <c r="A79" t="s">
@@ -3513,11 +3569,11 @@
       <c r="I79">
         <v>77</v>
       </c>
-      <c r="L79" s="5" t="s">
+      <c r="L79" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="M79" s="4"/>
-      <c r="N79" s="4"/>
+      <c r="M79" s="16"/>
+      <c r="N79" s="8"/>
     </row>
     <row r="80" spans="1:14">
       <c r="A80" t="s">
@@ -3547,11 +3603,11 @@
       <c r="I80">
         <v>78</v>
       </c>
-      <c r="L80" s="6"/>
-      <c r="M80" s="4"/>
-      <c r="N80" s="4"/>
-    </row>
-    <row r="81" spans="1:14" ht="21" thickBot="1">
+      <c r="L80" s="5"/>
+      <c r="M80" s="16"/>
+      <c r="N80" s="8"/>
+    </row>
+    <row r="81" spans="1:14">
       <c r="A81" t="s">
         <v>13</v>
       </c>
@@ -3564,9 +3620,9 @@
       <c r="J81">
         <v>-3</v>
       </c>
-      <c r="L81" s="7"/>
-      <c r="M81" s="4"/>
-      <c r="N81" s="4"/>
+      <c r="L81" s="5"/>
+      <c r="M81" s="16"/>
+      <c r="N81" s="8"/>
     </row>
     <row r="82" spans="1:14">
       <c r="A82" t="s">
@@ -3596,11 +3652,11 @@
       <c r="I82">
         <v>80</v>
       </c>
-      <c r="L82" s="5" t="s">
+      <c r="L82" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="M82" s="4"/>
-      <c r="N82" s="4"/>
+      <c r="M82" s="16"/>
+      <c r="N82" s="8"/>
     </row>
     <row r="83" spans="1:14">
       <c r="A83" t="s">
@@ -3630,11 +3686,11 @@
       <c r="I83">
         <v>81</v>
       </c>
-      <c r="L83" s="6"/>
-      <c r="M83" s="4"/>
-      <c r="N83" s="4"/>
-    </row>
-    <row r="84" spans="1:14" ht="21" thickBot="1">
+      <c r="L83" s="5"/>
+      <c r="M83" s="16"/>
+      <c r="N83" s="8"/>
+    </row>
+    <row r="84" spans="1:14">
       <c r="A84" t="s">
         <v>13</v>
       </c>
@@ -3647,9 +3703,9 @@
       <c r="J84">
         <v>-3</v>
       </c>
-      <c r="L84" s="7"/>
-      <c r="M84" s="4"/>
-      <c r="N84" s="4"/>
+      <c r="L84" s="5"/>
+      <c r="M84" s="16"/>
+      <c r="N84" s="8"/>
     </row>
     <row r="85" spans="1:14">
       <c r="A85" t="s">
@@ -3679,11 +3735,11 @@
       <c r="I85">
         <v>83</v>
       </c>
-      <c r="L85" s="5" t="s">
+      <c r="L85" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="M85" s="4"/>
-      <c r="N85" s="4"/>
+      <c r="M85" s="16"/>
+      <c r="N85" s="8"/>
     </row>
     <row r="86" spans="1:14">
       <c r="A86" t="s">
@@ -3713,11 +3769,11 @@
       <c r="I86">
         <v>84</v>
       </c>
-      <c r="L86" s="6"/>
-      <c r="M86" s="4"/>
-      <c r="N86" s="4"/>
-    </row>
-    <row r="87" spans="1:14" ht="21" thickBot="1">
+      <c r="L86" s="5"/>
+      <c r="M86" s="16"/>
+      <c r="N86" s="8"/>
+    </row>
+    <row r="87" spans="1:14">
       <c r="A87" t="s">
         <v>13</v>
       </c>
@@ -3730,9 +3786,9 @@
       <c r="J87">
         <v>-3</v>
       </c>
-      <c r="L87" s="7"/>
-      <c r="M87" s="4"/>
-      <c r="N87" s="4"/>
+      <c r="L87" s="5"/>
+      <c r="M87" s="16"/>
+      <c r="N87" s="8"/>
     </row>
     <row r="88" spans="1:14">
       <c r="A88" t="s">
@@ -3762,11 +3818,11 @@
       <c r="I88">
         <v>86</v>
       </c>
-      <c r="L88" s="5" t="s">
+      <c r="L88" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="M88" s="4"/>
-      <c r="N88" s="4"/>
+      <c r="M88" s="16"/>
+      <c r="N88" s="8"/>
     </row>
     <row r="89" spans="1:14">
       <c r="A89" t="s">
@@ -3796,11 +3852,11 @@
       <c r="I89">
         <v>87</v>
       </c>
-      <c r="L89" s="6"/>
-      <c r="M89" s="4"/>
-      <c r="N89" s="4"/>
-    </row>
-    <row r="90" spans="1:14" ht="21" thickBot="1">
+      <c r="L89" s="5"/>
+      <c r="M89" s="16"/>
+      <c r="N89" s="8"/>
+    </row>
+    <row r="90" spans="1:14">
       <c r="A90" t="s">
         <v>13</v>
       </c>
@@ -3813,9 +3869,9 @@
       <c r="J90">
         <v>-3</v>
       </c>
-      <c r="L90" s="7"/>
-      <c r="M90" s="4"/>
-      <c r="N90" s="4"/>
+      <c r="L90" s="5"/>
+      <c r="M90" s="16"/>
+      <c r="N90" s="8"/>
     </row>
     <row r="91" spans="1:14">
       <c r="A91" t="s">
@@ -3845,11 +3901,11 @@
       <c r="I91">
         <v>89</v>
       </c>
-      <c r="L91" s="5" t="s">
+      <c r="L91" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="M91" s="4"/>
-      <c r="N91" s="4"/>
+      <c r="M91" s="16"/>
+      <c r="N91" s="8"/>
     </row>
     <row r="92" spans="1:14">
       <c r="A92" t="s">
@@ -3879,11 +3935,11 @@
       <c r="I92">
         <v>90</v>
       </c>
-      <c r="L92" s="6"/>
-      <c r="M92" s="4"/>
-      <c r="N92" s="4"/>
-    </row>
-    <row r="93" spans="1:14" ht="21" thickBot="1">
+      <c r="L92" s="5"/>
+      <c r="M92" s="16"/>
+      <c r="N92" s="8"/>
+    </row>
+    <row r="93" spans="1:14">
       <c r="A93" t="s">
         <v>13</v>
       </c>
@@ -3896,9 +3952,9 @@
       <c r="J93">
         <v>-3</v>
       </c>
-      <c r="L93" s="7"/>
-      <c r="M93" s="4"/>
-      <c r="N93" s="4"/>
+      <c r="L93" s="5"/>
+      <c r="M93" s="16"/>
+      <c r="N93" s="8"/>
     </row>
     <row r="94" spans="1:14">
       <c r="A94" t="s">
@@ -3931,8 +3987,8 @@
       <c r="L94" t="s">
         <v>36</v>
       </c>
-      <c r="M94" s="4"/>
-      <c r="N94" s="4"/>
+      <c r="M94" s="16"/>
+      <c r="N94" s="8"/>
     </row>
     <row r="95" spans="1:14">
       <c r="A95" t="s">
@@ -3947,8 +4003,8 @@
       <c r="L95" t="s">
         <v>37</v>
       </c>
-      <c r="M95" s="4"/>
-      <c r="N95" s="4"/>
+      <c r="M95" s="16"/>
+      <c r="N95" s="8"/>
     </row>
     <row r="96" spans="1:14">
       <c r="A96" t="s">
@@ -3981,8 +4037,8 @@
       <c r="L96" t="s">
         <v>35</v>
       </c>
-      <c r="M96" s="4"/>
-      <c r="N96" s="4"/>
+      <c r="M96" s="16"/>
+      <c r="N96" s="8"/>
     </row>
     <row r="97" spans="1:14">
       <c r="A97" t="s">
@@ -4015,10 +4071,10 @@
       <c r="L97" t="s">
         <v>35</v>
       </c>
-      <c r="M97" s="3" t="s">
+      <c r="M97" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="N97" s="4"/>
+      <c r="N97" s="8"/>
     </row>
     <row r="98" spans="1:14">
       <c r="A98" t="s">
@@ -4049,10 +4105,10 @@
         <v>96</v>
       </c>
       <c r="L98" t="s">
-        <v>40</v>
-      </c>
-      <c r="M98" s="4"/>
-      <c r="N98" s="4"/>
+        <v>39</v>
+      </c>
+      <c r="M98" s="10"/>
+      <c r="N98" s="8"/>
     </row>
     <row r="99" spans="1:14">
       <c r="A99" t="s">
@@ -4067,10 +4123,10 @@
       <c r="L99" t="s">
         <v>36</v>
       </c>
-      <c r="M99" s="4"/>
-      <c r="N99" s="4"/>
-    </row>
-    <row r="100" spans="1:14" ht="21" thickBot="1">
+      <c r="M99" s="10"/>
+      <c r="N99" s="8"/>
+    </row>
+    <row r="100" spans="1:14">
       <c r="A100" t="s">
         <v>11</v>
       </c>
@@ -4101,8 +4157,8 @@
       <c r="L100" t="s">
         <v>36</v>
       </c>
-      <c r="M100" s="4"/>
-      <c r="N100" s="4"/>
+      <c r="M100" s="10"/>
+      <c r="N100" s="8"/>
     </row>
     <row r="101" spans="1:14">
       <c r="A101" t="s">
@@ -4132,11 +4188,11 @@
       <c r="I101">
         <v>99</v>
       </c>
-      <c r="L101" s="5" t="s">
+      <c r="L101" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="M101" s="4"/>
-      <c r="N101" s="4"/>
+      <c r="M101" s="10"/>
+      <c r="N101" s="8"/>
     </row>
     <row r="102" spans="1:14">
       <c r="A102" t="s">
@@ -4166,11 +4222,11 @@
       <c r="I102">
         <v>100</v>
       </c>
-      <c r="L102" s="6"/>
-      <c r="M102" s="4"/>
-      <c r="N102" s="4"/>
-    </row>
-    <row r="103" spans="1:14" ht="21" thickBot="1">
+      <c r="L102" s="7"/>
+      <c r="M102" s="10"/>
+      <c r="N102" s="8"/>
+    </row>
+    <row r="103" spans="1:14">
       <c r="A103" t="s">
         <v>13</v>
       </c>
@@ -4184,8 +4240,8 @@
         <v>-3</v>
       </c>
       <c r="L103" s="7"/>
-      <c r="M103" s="4"/>
-      <c r="N103" s="4"/>
+      <c r="M103" s="10"/>
+      <c r="N103" s="8"/>
     </row>
     <row r="104" spans="1:14">
       <c r="A104" t="s">
@@ -4215,11 +4271,11 @@
       <c r="I104">
         <v>102</v>
       </c>
-      <c r="L104" s="5" t="s">
+      <c r="L104" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="M104" s="4"/>
-      <c r="N104" s="4"/>
+      <c r="M104" s="10"/>
+      <c r="N104" s="8"/>
     </row>
     <row r="105" spans="1:14">
       <c r="A105" t="s">
@@ -4249,11 +4305,11 @@
       <c r="I105">
         <v>103</v>
       </c>
-      <c r="L105" s="6"/>
-      <c r="M105" s="4"/>
-      <c r="N105" s="4"/>
-    </row>
-    <row r="106" spans="1:14" ht="21" thickBot="1">
+      <c r="L105" s="7"/>
+      <c r="M105" s="10"/>
+      <c r="N105" s="8"/>
+    </row>
+    <row r="106" spans="1:14">
       <c r="A106" t="s">
         <v>13</v>
       </c>
@@ -4267,8 +4323,8 @@
         <v>-3</v>
       </c>
       <c r="L106" s="7"/>
-      <c r="M106" s="4"/>
-      <c r="N106" s="4"/>
+      <c r="M106" s="10"/>
+      <c r="N106" s="8"/>
     </row>
     <row r="107" spans="1:14">
       <c r="A107" t="s">
@@ -4298,11 +4354,11 @@
       <c r="I107">
         <v>105</v>
       </c>
-      <c r="L107" s="5" t="s">
+      <c r="L107" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="M107" s="4"/>
-      <c r="N107" s="4"/>
+      <c r="M107" s="10"/>
+      <c r="N107" s="8"/>
     </row>
     <row r="108" spans="1:14">
       <c r="A108" t="s">
@@ -4332,11 +4388,11 @@
       <c r="I108">
         <v>106</v>
       </c>
-      <c r="L108" s="6"/>
-      <c r="M108" s="4"/>
-      <c r="N108" s="4"/>
-    </row>
-    <row r="109" spans="1:14" ht="21" thickBot="1">
+      <c r="L108" s="7"/>
+      <c r="M108" s="10"/>
+      <c r="N108" s="8"/>
+    </row>
+    <row r="109" spans="1:14">
       <c r="A109" t="s">
         <v>13</v>
       </c>
@@ -4350,8 +4406,8 @@
         <v>-3</v>
       </c>
       <c r="L109" s="7"/>
-      <c r="M109" s="4"/>
-      <c r="N109" s="4"/>
+      <c r="M109" s="10"/>
+      <c r="N109" s="8"/>
     </row>
     <row r="110" spans="1:14">
       <c r="A110" t="s">
@@ -4381,11 +4437,11 @@
       <c r="I110">
         <v>108</v>
       </c>
-      <c r="L110" s="5" t="s">
+      <c r="L110" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="M110" s="4"/>
-      <c r="N110" s="4"/>
+      <c r="M110" s="10"/>
+      <c r="N110" s="8"/>
     </row>
     <row r="111" spans="1:14">
       <c r="A111" t="s">
@@ -4415,11 +4471,11 @@
       <c r="I111">
         <v>109</v>
       </c>
-      <c r="L111" s="6"/>
-      <c r="M111" s="4"/>
-      <c r="N111" s="4"/>
-    </row>
-    <row r="112" spans="1:14" ht="21" thickBot="1">
+      <c r="L111" s="7"/>
+      <c r="M111" s="10"/>
+      <c r="N111" s="8"/>
+    </row>
+    <row r="112" spans="1:14">
       <c r="A112" t="s">
         <v>13</v>
       </c>
@@ -4433,8 +4489,8 @@
         <v>-3</v>
       </c>
       <c r="L112" s="7"/>
-      <c r="M112" s="4"/>
-      <c r="N112" s="4"/>
+      <c r="M112" s="10"/>
+      <c r="N112" s="8"/>
     </row>
     <row r="113" spans="1:14">
       <c r="A113" t="s">
@@ -4464,11 +4520,11 @@
       <c r="I113">
         <v>111</v>
       </c>
-      <c r="L113" s="5" t="s">
+      <c r="L113" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="M113" s="4"/>
-      <c r="N113" s="4"/>
+      <c r="M113" s="10"/>
+      <c r="N113" s="8"/>
     </row>
     <row r="114" spans="1:14">
       <c r="A114" t="s">
@@ -4498,11 +4554,11 @@
       <c r="I114">
         <v>112</v>
       </c>
-      <c r="L114" s="6"/>
-      <c r="M114" s="4"/>
-      <c r="N114" s="4"/>
-    </row>
-    <row r="115" spans="1:14" ht="21" thickBot="1">
+      <c r="L114" s="7"/>
+      <c r="M114" s="10"/>
+      <c r="N114" s="8"/>
+    </row>
+    <row r="115" spans="1:14">
       <c r="A115" t="s">
         <v>13</v>
       </c>
@@ -4516,8 +4572,8 @@
         <v>-3</v>
       </c>
       <c r="L115" s="7"/>
-      <c r="M115" s="4"/>
-      <c r="N115" s="4"/>
+      <c r="M115" s="10"/>
+      <c r="N115" s="8"/>
     </row>
     <row r="116" spans="1:14">
       <c r="A116" t="s">
@@ -4550,8 +4606,8 @@
       <c r="L116" t="s">
         <v>36</v>
       </c>
-      <c r="M116" s="4"/>
-      <c r="N116" s="4"/>
+      <c r="M116" s="10"/>
+      <c r="N116" s="8"/>
     </row>
     <row r="117" spans="1:14">
       <c r="A117" t="s">
@@ -4566,8 +4622,8 @@
       <c r="L117" t="s">
         <v>37</v>
       </c>
-      <c r="M117" s="4"/>
-      <c r="N117" s="4"/>
+      <c r="M117" s="10"/>
+      <c r="N117" s="8"/>
     </row>
     <row r="118" spans="1:14">
       <c r="A118" t="s">
@@ -4600,8 +4656,8 @@
       <c r="L118" t="s">
         <v>35</v>
       </c>
-      <c r="M118" s="4"/>
-      <c r="N118" s="4"/>
+      <c r="M118" s="10"/>
+      <c r="N118" s="8"/>
     </row>
     <row r="119" spans="1:14" ht="20" customHeight="1">
       <c r="A119" t="s">
@@ -4634,10 +4690,10 @@
       <c r="L119" t="s">
         <v>35</v>
       </c>
-      <c r="M119" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="N119" s="4"/>
+      <c r="M119" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="N119" s="8"/>
     </row>
     <row r="120" spans="1:14">
       <c r="A120" t="s">
@@ -4652,8 +4708,8 @@
       <c r="L120" t="s">
         <v>36</v>
       </c>
-      <c r="M120" s="3"/>
-      <c r="N120" s="4"/>
+      <c r="M120" s="11"/>
+      <c r="N120" s="8"/>
     </row>
     <row r="121" spans="1:14" ht="21">
       <c r="A121" t="s">
@@ -4686,8 +4742,8 @@
       <c r="L121" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="M121" s="3"/>
-      <c r="N121" s="4"/>
+      <c r="M121" s="11"/>
+      <c r="N121" s="8"/>
     </row>
     <row r="122" spans="1:14">
       <c r="A122" t="s">
@@ -4720,8 +4776,8 @@
       <c r="L122" t="s">
         <v>36</v>
       </c>
-      <c r="M122" s="3"/>
-      <c r="N122" s="4"/>
+      <c r="M122" s="11"/>
+      <c r="N122" s="8"/>
     </row>
     <row r="123" spans="1:14">
       <c r="A123" t="s">
@@ -4754,8 +4810,8 @@
       <c r="L123" t="s">
         <v>36</v>
       </c>
-      <c r="M123" s="3"/>
-      <c r="N123" s="4"/>
+      <c r="M123" s="11"/>
+      <c r="N123" s="8"/>
     </row>
     <row r="124" spans="1:14">
       <c r="A124" t="s">
@@ -4773,8 +4829,8 @@
       <c r="L124" t="s">
         <v>33</v>
       </c>
-      <c r="M124" s="3"/>
-      <c r="N124" s="4"/>
+      <c r="M124" s="11"/>
+      <c r="N124" s="8"/>
     </row>
     <row r="125" spans="1:14">
       <c r="A125" t="s">
@@ -4789,8 +4845,8 @@
       <c r="L125" t="s">
         <v>33</v>
       </c>
-      <c r="M125" s="3"/>
-      <c r="N125" s="4"/>
+      <c r="M125" s="11"/>
+      <c r="N125" s="8"/>
     </row>
     <row r="126" spans="1:14">
       <c r="A126" t="s">
@@ -4808,8 +4864,8 @@
       <c r="L126" t="s">
         <v>33</v>
       </c>
-      <c r="M126" s="3"/>
-      <c r="N126" s="4"/>
+      <c r="M126" s="11"/>
+      <c r="N126" s="8"/>
     </row>
     <row r="127" spans="1:14">
       <c r="A127" t="s">
@@ -4824,8 +4880,8 @@
       <c r="L127" t="s">
         <v>33</v>
       </c>
-      <c r="M127" s="3"/>
-      <c r="N127" s="4"/>
+      <c r="M127" s="11"/>
+      <c r="N127" s="8"/>
     </row>
     <row r="128" spans="1:14">
       <c r="A128" t="s">
@@ -4843,8 +4899,8 @@
       <c r="L128" t="s">
         <v>33</v>
       </c>
-      <c r="M128" s="3"/>
-      <c r="N128" s="4"/>
+      <c r="M128" s="11"/>
+      <c r="N128" s="8"/>
     </row>
     <row r="129" spans="1:14">
       <c r="A129" t="s">
@@ -4859,8 +4915,8 @@
       <c r="L129" t="s">
         <v>33</v>
       </c>
-      <c r="M129" s="3"/>
-      <c r="N129" s="4"/>
+      <c r="M129" s="11"/>
+      <c r="N129" s="8"/>
     </row>
     <row r="130" spans="1:14">
       <c r="A130" t="s">
@@ -4893,8 +4949,8 @@
       <c r="L130" t="s">
         <v>36</v>
       </c>
-      <c r="M130" s="3"/>
-      <c r="N130" s="4"/>
+      <c r="M130" s="11"/>
+      <c r="N130" s="8"/>
     </row>
     <row r="131" spans="1:14">
       <c r="A131" t="s">
@@ -4927,8 +4983,8 @@
       <c r="L131" t="s">
         <v>36</v>
       </c>
-      <c r="M131" s="3"/>
-      <c r="N131" s="4"/>
+      <c r="M131" s="11"/>
+      <c r="N131" s="8"/>
     </row>
     <row r="132" spans="1:14">
       <c r="A132" t="s">
@@ -4961,8 +5017,8 @@
       <c r="L132" t="s">
         <v>36</v>
       </c>
-      <c r="M132" s="3"/>
-      <c r="N132" s="4"/>
+      <c r="M132" s="11"/>
+      <c r="N132" s="8"/>
     </row>
     <row r="133" spans="1:14">
       <c r="A133" t="s">
@@ -4995,8 +5051,8 @@
       <c r="L133" t="s">
         <v>36</v>
       </c>
-      <c r="M133" s="3"/>
-      <c r="N133" s="4"/>
+      <c r="M133" s="11"/>
+      <c r="N133" s="8"/>
     </row>
     <row r="134" spans="1:14">
       <c r="A134" t="s">
@@ -5011,8 +5067,8 @@
       <c r="L134" t="s">
         <v>37</v>
       </c>
-      <c r="M134" s="3"/>
-      <c r="N134" s="4"/>
+      <c r="M134" s="11"/>
+      <c r="N134" s="8"/>
     </row>
     <row r="135" spans="1:14">
       <c r="A135" t="s">
@@ -5045,8 +5101,8 @@
       <c r="L135" t="s">
         <v>35</v>
       </c>
-      <c r="M135" s="3"/>
-      <c r="N135" s="4"/>
+      <c r="M135" s="12"/>
+      <c r="N135" s="14"/>
     </row>
     <row r="136" spans="1:14">
       <c r="A136" t="s">
@@ -5076,11 +5132,11 @@
       <c r="I136">
         <v>134</v>
       </c>
-      <c r="L136" s="4" t="s">
+      <c r="L136" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="M136" s="4"/>
-      <c r="N136" s="4"/>
+      <c r="M136" s="10"/>
+      <c r="N136" s="10"/>
     </row>
     <row r="137" spans="1:14">
       <c r="A137" t="s">
@@ -5092,9 +5148,9 @@
       <c r="I137">
         <v>135</v>
       </c>
-      <c r="L137" s="4"/>
-      <c r="M137" s="4"/>
-      <c r="N137" s="4"/>
+      <c r="L137" s="10"/>
+      <c r="M137" s="10"/>
+      <c r="N137" s="10"/>
     </row>
     <row r="138" spans="1:14">
       <c r="A138" t="s">
@@ -5107,7 +5163,7 @@
         <v>94</v>
       </c>
       <c r="L138" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="139" spans="1:14">
@@ -5138,11 +5194,11 @@
       <c r="I139">
         <v>137</v>
       </c>
-      <c r="L139" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="M139" s="4"/>
-      <c r="N139" s="4"/>
+      <c r="L139" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M139" s="3"/>
+      <c r="N139" s="3"/>
     </row>
     <row r="140" spans="1:14">
       <c r="A140" t="s">
@@ -5155,7 +5211,7 @@
         <v>23</v>
       </c>
       <c r="L140" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="141" spans="1:14" ht="20" customHeight="1">
@@ -5189,10 +5245,10 @@
       <c r="L141" t="s">
         <v>35</v>
       </c>
-      <c r="M141" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="N141" s="3"/>
+      <c r="M141" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="N141" s="4"/>
     </row>
     <row r="142" spans="1:14">
       <c r="A142" t="s">
@@ -5223,10 +5279,10 @@
         <v>140</v>
       </c>
       <c r="L142" t="s">
-        <v>40</v>
-      </c>
-      <c r="M142" s="3"/>
-      <c r="N142" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="M142" s="4"/>
+      <c r="N142" s="4"/>
     </row>
     <row r="143" spans="1:14">
       <c r="A143" t="s">
@@ -5241,8 +5297,8 @@
       <c r="L143" t="s">
         <v>36</v>
       </c>
-      <c r="M143" s="3"/>
-      <c r="N143" s="3"/>
+      <c r="M143" s="4"/>
+      <c r="N143" s="4"/>
     </row>
     <row r="144" spans="1:14">
       <c r="A144" t="s">
@@ -5275,8 +5331,8 @@
       <c r="L144" t="s">
         <v>36</v>
       </c>
-      <c r="M144" s="3"/>
-      <c r="N144" s="3"/>
+      <c r="M144" s="4"/>
+      <c r="N144" s="4"/>
     </row>
     <row r="145" spans="1:14">
       <c r="A145" t="s">
@@ -5309,8 +5365,8 @@
       <c r="L145" t="s">
         <v>36</v>
       </c>
-      <c r="M145" s="3"/>
-      <c r="N145" s="3"/>
+      <c r="M145" s="4"/>
+      <c r="N145" s="4"/>
     </row>
     <row r="146" spans="1:14">
       <c r="A146" t="s">
@@ -5343,8 +5399,8 @@
       <c r="L146" t="s">
         <v>36</v>
       </c>
-      <c r="M146" s="3"/>
-      <c r="N146" s="3"/>
+      <c r="M146" s="4"/>
+      <c r="N146" s="4"/>
     </row>
     <row r="147" spans="1:14">
       <c r="A147" t="s">
@@ -5377,8 +5433,8 @@
       <c r="L147" t="s">
         <v>36</v>
       </c>
-      <c r="M147" s="3"/>
-      <c r="N147" s="3"/>
+      <c r="M147" s="4"/>
+      <c r="N147" s="4"/>
     </row>
     <row r="148" spans="1:14">
       <c r="A148" t="s">
@@ -5411,8 +5467,8 @@
       <c r="L148" t="s">
         <v>36</v>
       </c>
-      <c r="M148" s="3"/>
-      <c r="N148" s="3"/>
+      <c r="M148" s="4"/>
+      <c r="N148" s="4"/>
     </row>
     <row r="149" spans="1:14">
       <c r="A149" t="s">
@@ -5445,8 +5501,8 @@
       <c r="L149" t="s">
         <v>36</v>
       </c>
-      <c r="M149" s="3"/>
-      <c r="N149" s="3"/>
+      <c r="M149" s="4"/>
+      <c r="N149" s="4"/>
     </row>
     <row r="150" spans="1:14">
       <c r="A150" t="s">
@@ -5461,8 +5517,8 @@
       <c r="L150" t="s">
         <v>37</v>
       </c>
-      <c r="M150" s="3"/>
-      <c r="N150" s="3"/>
+      <c r="M150" s="4"/>
+      <c r="N150" s="4"/>
     </row>
     <row r="151" spans="1:14">
       <c r="A151" t="s">
@@ -5495,8 +5551,8 @@
       <c r="L151" t="s">
         <v>35</v>
       </c>
-      <c r="M151" s="3"/>
-      <c r="N151" s="3"/>
+      <c r="M151" s="9"/>
+      <c r="N151" s="9"/>
     </row>
     <row r="152" spans="1:14">
       <c r="A152" t="s">
@@ -5526,11 +5582,11 @@
       <c r="I152">
         <v>150</v>
       </c>
-      <c r="L152" s="4" t="s">
+      <c r="L152" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="M152" s="4"/>
-      <c r="N152" s="4"/>
+      <c r="M152" s="10"/>
+      <c r="N152" s="10"/>
     </row>
     <row r="153" spans="1:14">
       <c r="A153" t="s">
@@ -5542,9 +5598,9 @@
       <c r="I153">
         <v>151</v>
       </c>
-      <c r="L153" s="4"/>
-      <c r="M153" s="4"/>
-      <c r="N153" s="4"/>
+      <c r="L153" s="10"/>
+      <c r="M153" s="10"/>
+      <c r="N153" s="10"/>
     </row>
     <row r="154" spans="1:14">
       <c r="A154" t="s">
@@ -5557,7 +5613,7 @@
         <v>57</v>
       </c>
       <c r="L154" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="155" spans="1:14">
@@ -5588,11 +5644,11 @@
       <c r="I155">
         <v>153</v>
       </c>
-      <c r="L155" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="M155" s="4"/>
-      <c r="N155" s="4"/>
+      <c r="L155" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M155" s="3"/>
+      <c r="N155" s="3"/>
     </row>
     <row r="156" spans="1:14">
       <c r="A156" t="s">
@@ -5605,7 +5661,7 @@
         <v>23</v>
       </c>
       <c r="L156" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="157" spans="1:14">
@@ -5639,10 +5695,10 @@
       <c r="L157" t="s">
         <v>35</v>
       </c>
-      <c r="M157" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="N157" s="3"/>
+      <c r="M157" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="N157" s="4"/>
     </row>
     <row r="158" spans="1:14">
       <c r="A158" t="s">
@@ -5673,10 +5729,10 @@
         <v>156</v>
       </c>
       <c r="L158" t="s">
-        <v>40</v>
-      </c>
-      <c r="M158" s="3"/>
-      <c r="N158" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="M158" s="4"/>
+      <c r="N158" s="4"/>
     </row>
     <row r="159" spans="1:14">
       <c r="A159" t="s">
@@ -5691,8 +5747,8 @@
       <c r="L159" t="s">
         <v>36</v>
       </c>
-      <c r="M159" s="3"/>
-      <c r="N159" s="3"/>
+      <c r="M159" s="4"/>
+      <c r="N159" s="4"/>
     </row>
     <row r="160" spans="1:14">
       <c r="A160" t="s">
@@ -5725,8 +5781,8 @@
       <c r="L160" t="s">
         <v>36</v>
       </c>
-      <c r="M160" s="3"/>
-      <c r="N160" s="3"/>
+      <c r="M160" s="4"/>
+      <c r="N160" s="4"/>
     </row>
     <row r="161" spans="1:15">
       <c r="A161" t="s">
@@ -5759,8 +5815,8 @@
       <c r="L161" t="s">
         <v>36</v>
       </c>
-      <c r="M161" s="3"/>
-      <c r="N161" s="3"/>
+      <c r="M161" s="4"/>
+      <c r="N161" s="4"/>
     </row>
     <row r="162" spans="1:15">
       <c r="A162" t="s">
@@ -5793,8 +5849,8 @@
       <c r="L162" t="s">
         <v>36</v>
       </c>
-      <c r="M162" s="3"/>
-      <c r="N162" s="3"/>
+      <c r="M162" s="4"/>
+      <c r="N162" s="4"/>
     </row>
     <row r="163" spans="1:15">
       <c r="A163" t="s">
@@ -5827,8 +5883,8 @@
       <c r="L163" t="s">
         <v>36</v>
       </c>
-      <c r="M163" s="3"/>
-      <c r="N163" s="3"/>
+      <c r="M163" s="4"/>
+      <c r="N163" s="4"/>
     </row>
     <row r="164" spans="1:15">
       <c r="A164" t="s">
@@ -5861,8 +5917,8 @@
       <c r="L164" t="s">
         <v>36</v>
       </c>
-      <c r="M164" s="3"/>
-      <c r="N164" s="3"/>
+      <c r="M164" s="4"/>
+      <c r="N164" s="4"/>
     </row>
     <row r="165" spans="1:15">
       <c r="A165" t="s">
@@ -5895,8 +5951,8 @@
       <c r="L165" t="s">
         <v>36</v>
       </c>
-      <c r="M165" s="3"/>
-      <c r="N165" s="3"/>
+      <c r="M165" s="4"/>
+      <c r="N165" s="4"/>
     </row>
     <row r="166" spans="1:15">
       <c r="A166" t="s">
@@ -5911,8 +5967,8 @@
       <c r="L166" t="s">
         <v>37</v>
       </c>
-      <c r="M166" s="3"/>
-      <c r="N166" s="3"/>
+      <c r="M166" s="4"/>
+      <c r="N166" s="4"/>
     </row>
     <row r="167" spans="1:15">
       <c r="A167" t="s">
@@ -5945,8 +6001,8 @@
       <c r="L167" t="s">
         <v>35</v>
       </c>
-      <c r="M167" s="3"/>
-      <c r="N167" s="3"/>
+      <c r="M167" s="9"/>
+      <c r="N167" s="9"/>
     </row>
     <row r="168" spans="1:15">
       <c r="A168" t="s">
@@ -5976,11 +6032,11 @@
       <c r="I168">
         <v>166</v>
       </c>
-      <c r="L168" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="M168" s="4"/>
-      <c r="N168" s="4"/>
+      <c r="L168" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="M168" s="8"/>
+      <c r="N168" s="8"/>
     </row>
     <row r="169" spans="1:15">
       <c r="A169" t="s">
@@ -6007,9 +6063,9 @@
       <c r="I169">
         <v>167</v>
       </c>
-      <c r="L169" s="4"/>
-      <c r="M169" s="4"/>
-      <c r="N169" s="4"/>
+      <c r="L169" s="8"/>
+      <c r="M169" s="8"/>
+      <c r="N169" s="8"/>
     </row>
     <row r="170" spans="1:15">
       <c r="A170" t="s">
@@ -6018,11 +6074,11 @@
       <c r="I170">
         <v>168</v>
       </c>
-      <c r="L170" s="4"/>
-      <c r="M170" s="4"/>
-      <c r="N170" s="4"/>
+      <c r="L170" s="8"/>
+      <c r="M170" s="8"/>
+      <c r="N170" s="8"/>
       <c r="O170" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="171" spans="1:15">
@@ -6036,7 +6092,7 @@
         <v>-4</v>
       </c>
       <c r="L171" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="172" spans="1:15">
@@ -6067,11 +6123,11 @@
       <c r="I172">
         <v>170</v>
       </c>
-      <c r="L172" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="M172" s="4"/>
-      <c r="N172" s="4"/>
+      <c r="L172" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M172" s="3"/>
+      <c r="N172" s="3"/>
     </row>
     <row r="173" spans="1:15">
       <c r="A173" t="s">
@@ -6084,7 +6140,7 @@
         <v>27</v>
       </c>
       <c r="L173" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="174" spans="1:15">
@@ -6118,10 +6174,10 @@
       <c r="L174" t="s">
         <v>35</v>
       </c>
-      <c r="M174" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="N174" s="3"/>
+      <c r="M174" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="N174" s="4"/>
     </row>
     <row r="175" spans="1:15">
       <c r="A175" t="s">
@@ -6152,10 +6208,10 @@
         <v>173</v>
       </c>
       <c r="L175" t="s">
-        <v>40</v>
-      </c>
-      <c r="M175" s="3"/>
-      <c r="N175" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="M175" s="4"/>
+      <c r="N175" s="4"/>
     </row>
     <row r="176" spans="1:15">
       <c r="A176" t="s">
@@ -6170,8 +6226,8 @@
       <c r="L176" t="s">
         <v>36</v>
       </c>
-      <c r="M176" s="3"/>
-      <c r="N176" s="3"/>
+      <c r="M176" s="4"/>
+      <c r="N176" s="4"/>
     </row>
     <row r="177" spans="1:15">
       <c r="A177" t="s">
@@ -6204,8 +6260,8 @@
       <c r="L177" t="s">
         <v>36</v>
       </c>
-      <c r="M177" s="3"/>
-      <c r="N177" s="3"/>
+      <c r="M177" s="4"/>
+      <c r="N177" s="4"/>
     </row>
     <row r="178" spans="1:15">
       <c r="A178" t="s">
@@ -6238,8 +6294,8 @@
       <c r="L178" t="s">
         <v>36</v>
       </c>
-      <c r="M178" s="3"/>
-      <c r="N178" s="3"/>
+      <c r="M178" s="4"/>
+      <c r="N178" s="4"/>
     </row>
     <row r="179" spans="1:15">
       <c r="A179" t="s">
@@ -6272,8 +6328,8 @@
       <c r="L179" t="s">
         <v>36</v>
       </c>
-      <c r="M179" s="3"/>
-      <c r="N179" s="3"/>
+      <c r="M179" s="4"/>
+      <c r="N179" s="4"/>
     </row>
     <row r="180" spans="1:15">
       <c r="A180" t="s">
@@ -6306,8 +6362,8 @@
       <c r="L180" t="s">
         <v>36</v>
       </c>
-      <c r="M180" s="3"/>
-      <c r="N180" s="3"/>
+      <c r="M180" s="4"/>
+      <c r="N180" s="4"/>
     </row>
     <row r="181" spans="1:15">
       <c r="A181" t="s">
@@ -6340,8 +6396,8 @@
       <c r="L181" t="s">
         <v>36</v>
       </c>
-      <c r="M181" s="3"/>
-      <c r="N181" s="3"/>
+      <c r="M181" s="4"/>
+      <c r="N181" s="4"/>
     </row>
     <row r="182" spans="1:15">
       <c r="A182" t="s">
@@ -6374,8 +6430,8 @@
       <c r="L182" t="s">
         <v>36</v>
       </c>
-      <c r="M182" s="3"/>
-      <c r="N182" s="3"/>
+      <c r="M182" s="4"/>
+      <c r="N182" s="4"/>
     </row>
     <row r="183" spans="1:15">
       <c r="A183" t="s">
@@ -6390,8 +6446,8 @@
       <c r="L183" t="s">
         <v>37</v>
       </c>
-      <c r="M183" s="3"/>
-      <c r="N183" s="3"/>
+      <c r="M183" s="4"/>
+      <c r="N183" s="4"/>
     </row>
     <row r="184" spans="1:15">
       <c r="A184" t="s">
@@ -6424,8 +6480,8 @@
       <c r="L184" t="s">
         <v>35</v>
       </c>
-      <c r="M184" s="3"/>
-      <c r="N184" s="3"/>
+      <c r="M184" s="9"/>
+      <c r="N184" s="9"/>
     </row>
     <row r="185" spans="1:15">
       <c r="A185" t="s">
@@ -6455,11 +6511,11 @@
       <c r="I185">
         <v>183</v>
       </c>
-      <c r="L185" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="M185" s="4"/>
-      <c r="N185" s="4"/>
+      <c r="L185" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="M185" s="8"/>
+      <c r="N185" s="8"/>
     </row>
     <row r="186" spans="1:15">
       <c r="A186" t="s">
@@ -6486,9 +6542,9 @@
       <c r="I186">
         <v>184</v>
       </c>
-      <c r="L186" s="4"/>
-      <c r="M186" s="4"/>
-      <c r="N186" s="4"/>
+      <c r="L186" s="8"/>
+      <c r="M186" s="8"/>
+      <c r="N186" s="8"/>
     </row>
     <row r="187" spans="1:15">
       <c r="A187" t="s">
@@ -6497,11 +6553,11 @@
       <c r="I187">
         <v>185</v>
       </c>
-      <c r="L187" s="4"/>
-      <c r="M187" s="4"/>
-      <c r="N187" s="4"/>
+      <c r="L187" s="8"/>
+      <c r="M187" s="8"/>
+      <c r="N187" s="8"/>
       <c r="O187" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="188" spans="1:15">
@@ -6515,7 +6571,7 @@
         <v>-4</v>
       </c>
       <c r="L188" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="189" spans="1:15">
@@ -6546,11 +6602,11 @@
       <c r="I189">
         <v>187</v>
       </c>
-      <c r="L189" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="M189" s="4"/>
-      <c r="N189" s="4"/>
+      <c r="L189" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M189" s="3"/>
+      <c r="N189" s="3"/>
     </row>
     <row r="190" spans="1:15">
       <c r="A190" t="s">
@@ -6563,7 +6619,7 @@
         <v>29</v>
       </c>
       <c r="L190" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="191" spans="1:15">
@@ -6597,10 +6653,10 @@
       <c r="L191" t="s">
         <v>35</v>
       </c>
-      <c r="M191" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="N191" s="3"/>
+      <c r="M191" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="N191" s="4"/>
     </row>
     <row r="192" spans="1:15">
       <c r="A192" t="s">
@@ -6631,10 +6687,10 @@
         <v>190</v>
       </c>
       <c r="L192" t="s">
-        <v>40</v>
-      </c>
-      <c r="M192" s="3"/>
-      <c r="N192" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="M192" s="4"/>
+      <c r="N192" s="4"/>
     </row>
     <row r="193" spans="1:15">
       <c r="A193" t="s">
@@ -6649,8 +6705,8 @@
       <c r="L193" t="s">
         <v>36</v>
       </c>
-      <c r="M193" s="3"/>
-      <c r="N193" s="3"/>
+      <c r="M193" s="4"/>
+      <c r="N193" s="4"/>
     </row>
     <row r="194" spans="1:15">
       <c r="A194" t="s">
@@ -6683,8 +6739,8 @@
       <c r="L194" t="s">
         <v>36</v>
       </c>
-      <c r="M194" s="3"/>
-      <c r="N194" s="3"/>
+      <c r="M194" s="4"/>
+      <c r="N194" s="4"/>
     </row>
     <row r="195" spans="1:15">
       <c r="A195" t="s">
@@ -6717,8 +6773,8 @@
       <c r="L195" t="s">
         <v>36</v>
       </c>
-      <c r="M195" s="3"/>
-      <c r="N195" s="3"/>
+      <c r="M195" s="4"/>
+      <c r="N195" s="4"/>
     </row>
     <row r="196" spans="1:15">
       <c r="A196" t="s">
@@ -6751,8 +6807,8 @@
       <c r="L196" t="s">
         <v>36</v>
       </c>
-      <c r="M196" s="3"/>
-      <c r="N196" s="3"/>
+      <c r="M196" s="4"/>
+      <c r="N196" s="4"/>
     </row>
     <row r="197" spans="1:15">
       <c r="A197" t="s">
@@ -6785,8 +6841,8 @@
       <c r="L197" t="s">
         <v>36</v>
       </c>
-      <c r="M197" s="3"/>
-      <c r="N197" s="3"/>
+      <c r="M197" s="4"/>
+      <c r="N197" s="4"/>
     </row>
     <row r="198" spans="1:15">
       <c r="A198" t="s">
@@ -6819,8 +6875,8 @@
       <c r="L198" t="s">
         <v>36</v>
       </c>
-      <c r="M198" s="3"/>
-      <c r="N198" s="3"/>
+      <c r="M198" s="4"/>
+      <c r="N198" s="4"/>
     </row>
     <row r="199" spans="1:15">
       <c r="A199" t="s">
@@ -6853,8 +6909,8 @@
       <c r="L199" t="s">
         <v>36</v>
       </c>
-      <c r="M199" s="3"/>
-      <c r="N199" s="3"/>
+      <c r="M199" s="4"/>
+      <c r="N199" s="4"/>
     </row>
     <row r="200" spans="1:15">
       <c r="A200" t="s">
@@ -6869,8 +6925,8 @@
       <c r="L200" t="s">
         <v>37</v>
       </c>
-      <c r="M200" s="3"/>
-      <c r="N200" s="3"/>
+      <c r="M200" s="4"/>
+      <c r="N200" s="4"/>
     </row>
     <row r="201" spans="1:15">
       <c r="A201" t="s">
@@ -6903,8 +6959,8 @@
       <c r="L201" t="s">
         <v>35</v>
       </c>
-      <c r="M201" s="3"/>
-      <c r="N201" s="3"/>
+      <c r="M201" s="9"/>
+      <c r="N201" s="9"/>
     </row>
     <row r="202" spans="1:15">
       <c r="A202" t="s">
@@ -6934,11 +6990,11 @@
       <c r="I202">
         <v>200</v>
       </c>
-      <c r="L202" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="M202" s="4"/>
-      <c r="N202" s="4"/>
+      <c r="L202" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="M202" s="8"/>
+      <c r="N202" s="8"/>
     </row>
     <row r="203" spans="1:15">
       <c r="A203" t="s">
@@ -6965,9 +7021,9 @@
       <c r="I203">
         <v>201</v>
       </c>
-      <c r="L203" s="4"/>
-      <c r="M203" s="4"/>
-      <c r="N203" s="4"/>
+      <c r="L203" s="8"/>
+      <c r="M203" s="8"/>
+      <c r="N203" s="8"/>
     </row>
     <row r="204" spans="1:15">
       <c r="A204" t="s">
@@ -6976,45 +7032,20 @@
       <c r="I204">
         <v>202</v>
       </c>
-      <c r="L204" s="4"/>
-      <c r="M204" s="4"/>
-      <c r="N204" s="4"/>
+      <c r="L204" s="8"/>
+      <c r="M204" s="8"/>
+      <c r="N204" s="8"/>
       <c r="O204" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="L48:L50"/>
-    <mergeCell ref="L4:L6"/>
-    <mergeCell ref="L11:L13"/>
-    <mergeCell ref="L14:L16"/>
-    <mergeCell ref="L17:L19"/>
-    <mergeCell ref="L27:L29"/>
-    <mergeCell ref="L30:L32"/>
-    <mergeCell ref="L33:L35"/>
-    <mergeCell ref="L36:L38"/>
-    <mergeCell ref="L39:L41"/>
-    <mergeCell ref="L42:L44"/>
-    <mergeCell ref="L45:L47"/>
-    <mergeCell ref="L91:L93"/>
-    <mergeCell ref="L51:L53"/>
-    <mergeCell ref="L54:L56"/>
-    <mergeCell ref="L64:L66"/>
-    <mergeCell ref="L67:L69"/>
-    <mergeCell ref="L70:L72"/>
-    <mergeCell ref="L73:L75"/>
-    <mergeCell ref="L76:L78"/>
-    <mergeCell ref="L79:L81"/>
-    <mergeCell ref="L82:L84"/>
-    <mergeCell ref="L85:L87"/>
-    <mergeCell ref="L88:L90"/>
-    <mergeCell ref="L155:N155"/>
-    <mergeCell ref="M157:N167"/>
-    <mergeCell ref="L168:N170"/>
-    <mergeCell ref="L172:N172"/>
-    <mergeCell ref="L136:N137"/>
-    <mergeCell ref="L139:N139"/>
+    <mergeCell ref="M174:N184"/>
+    <mergeCell ref="L185:N187"/>
+    <mergeCell ref="L189:N189"/>
+    <mergeCell ref="M191:N201"/>
+    <mergeCell ref="L202:N204"/>
     <mergeCell ref="L1:N1"/>
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="N2:N135"/>
@@ -7031,11 +7062,36 @@
     <mergeCell ref="M23:M59"/>
     <mergeCell ref="M60:M96"/>
     <mergeCell ref="M97:M118"/>
-    <mergeCell ref="M174:N184"/>
-    <mergeCell ref="L185:N187"/>
-    <mergeCell ref="L189:N189"/>
-    <mergeCell ref="M191:N201"/>
-    <mergeCell ref="L202:N204"/>
+    <mergeCell ref="L155:N155"/>
+    <mergeCell ref="M157:N167"/>
+    <mergeCell ref="L168:N170"/>
+    <mergeCell ref="L172:N172"/>
+    <mergeCell ref="L136:N137"/>
+    <mergeCell ref="L139:N139"/>
+    <mergeCell ref="L91:L93"/>
+    <mergeCell ref="L51:L53"/>
+    <mergeCell ref="L54:L56"/>
+    <mergeCell ref="L64:L66"/>
+    <mergeCell ref="L67:L69"/>
+    <mergeCell ref="L70:L72"/>
+    <mergeCell ref="L73:L75"/>
+    <mergeCell ref="L76:L78"/>
+    <mergeCell ref="L79:L81"/>
+    <mergeCell ref="L82:L84"/>
+    <mergeCell ref="L85:L87"/>
+    <mergeCell ref="L88:L90"/>
+    <mergeCell ref="L48:L50"/>
+    <mergeCell ref="L4:L6"/>
+    <mergeCell ref="L11:L13"/>
+    <mergeCell ref="L14:L16"/>
+    <mergeCell ref="L17:L19"/>
+    <mergeCell ref="L27:L29"/>
+    <mergeCell ref="L30:L32"/>
+    <mergeCell ref="L33:L35"/>
+    <mergeCell ref="L36:L38"/>
+    <mergeCell ref="L39:L41"/>
+    <mergeCell ref="L42:L44"/>
+    <mergeCell ref="L45:L47"/>
   </mergeCells>
   <phoneticPr fontId="18"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
